--- a/Jogos_da_Semana_FlashScore_2025-02-03.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-03.xlsx
@@ -1119,13 +1119,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H5" t="n">
         <v>3.1</v>
       </c>
       <c r="I5" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J5" t="n">
         <v>2.88</v>
@@ -1134,13 +1134,13 @@
         <v>1.95</v>
       </c>
       <c r="L5" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M5" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O5" t="n">
         <v>1.44</v>
@@ -1188,10 +1188,10 @@
         <v>9.5</v>
       </c>
       <c r="AD5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE5" t="n">
         <v>19</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>21</v>
       </c>
       <c r="AF5" t="n">
         <v>34</v>
@@ -1203,7 +1203,7 @@
         <v>6</v>
       </c>
       <c r="AI5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ5" t="n">
         <v>67</v>
@@ -1584,10 +1584,10 @@
         <v>5.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N8" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O8" t="n">
         <v>1.73</v>
@@ -1715,16 +1715,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="H9" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I9" t="n">
         <v>4.5</v>
       </c>
       <c r="J9" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K9" t="n">
         <v>1.95</v>
@@ -1733,10 +1733,10 @@
         <v>5.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N9" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O9" t="n">
         <v>1.5</v>
@@ -1885,13 +1885,13 @@
         <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O10" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P10" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q10" t="n">
         <v>2.25</v>
@@ -2592,7 +2592,7 @@
         <v>2.2</v>
       </c>
       <c r="L15" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M15" t="n">
         <v>1.05</v>
@@ -3145,91 +3145,95 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="H19" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="I19" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="K19" t="n">
-        <v>2.22</v>
+        <v>2.07</v>
       </c>
       <c r="L19" t="n">
-        <v>2.45</v>
+        <v>2.62</v>
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="n">
-        <v>1.19</v>
+        <v>1.26</v>
       </c>
       <c r="P19" t="n">
-        <v>3.7</v>
+        <v>3.15</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.57</v>
+        <v>1.78</v>
       </c>
       <c r="R19" t="n">
-        <v>2.1</v>
+        <v>1.82</v>
       </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="n">
-        <v>2.35</v>
+        <v>2.8</v>
       </c>
       <c r="V19" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
+        <v>1.33</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X19" t="n">
+        <v>2.55</v>
+      </c>
       <c r="Y19" t="n">
-        <v>1.52</v>
+        <v>1.65</v>
       </c>
       <c r="Z19" t="n">
-        <v>2.22</v>
+        <v>1.98</v>
       </c>
       <c r="AA19" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AB19" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AC19" t="n">
         <v>11.75</v>
       </c>
       <c r="AD19" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AE19" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AF19" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="AG19" t="n">
-        <v>13.5</v>
+        <v>10.25</v>
       </c>
       <c r="AH19" t="n">
-        <v>7.3</v>
+        <v>6.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ19" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AK19" t="n">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="AL19" t="n">
-        <v>9.75</v>
+        <v>7.9</v>
       </c>
       <c r="AM19" t="n">
-        <v>11.25</v>
+        <v>10</v>
       </c>
       <c r="AN19" t="n">
         <v>8.5</v>
@@ -3238,10 +3242,10 @@
         <v>18.5</v>
       </c>
       <c r="AP19" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AQ19" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AR19" t="inlineStr"/>
       <c r="AS19" t="inlineStr"/>
@@ -3568,13 +3572,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H22" t="n">
         <v>3.75</v>
       </c>
       <c r="I22" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J22" t="n">
         <v>2.6</v>
@@ -3583,7 +3587,7 @@
         <v>2.38</v>
       </c>
       <c r="L22" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M22" t="n">
         <v>1.03</v>
@@ -3604,10 +3608,10 @@
         <v>2.35</v>
       </c>
       <c r="S22" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="T22" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="U22" t="n">
         <v>2.38</v>
@@ -3670,7 +3674,7 @@
         <v>12</v>
       </c>
       <c r="AO22" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP22" t="n">
         <v>23</v>
@@ -3749,16 +3753,16 @@
         <v>2.4</v>
       </c>
       <c r="S23" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="T23" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="U23" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V23" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W23" t="n">
         <v>1.29</v>
@@ -3896,10 +3900,10 @@
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="V24" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="W24" t="n">
         <v>1.57</v>
@@ -3965,10 +3969,10 @@
         <v>41</v>
       </c>
       <c r="AR24" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="25">
@@ -4344,10 +4348,10 @@
         <v>7.9</v>
       </c>
       <c r="AB27" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AD27" t="n">
         <v>16</v>
@@ -4365,13 +4369,13 @@
         <v>6.8</v>
       </c>
       <c r="AI27" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AJ27" t="n">
         <v>60</v>
       </c>
       <c r="AK27" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AL27" t="n">
         <v>11.75</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-03.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-03.xlsx
@@ -752,13 +752,13 @@
         <v>2.2</v>
       </c>
       <c r="AA2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB2" t="n">
         <v>10</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD2" t="n">
         <v>11</v>
@@ -785,13 +785,13 @@
         <v>151</v>
       </c>
       <c r="AL2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM2" t="n">
         <v>51</v>
       </c>
       <c r="AN2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO2" t="n">
         <v>101</v>
@@ -1864,70 +1864,70 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H10" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I10" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J10" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K10" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L10" t="n">
         <v>5.5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O10" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P10" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="R10" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X10" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z10" t="n">
         <v>1.62</v>
       </c>
-      <c r="S10" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="U10" t="n">
-        <v>4</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="W10" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="X10" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>1.67</v>
-      </c>
       <c r="AA10" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AC10" t="n">
         <v>9</v>
@@ -1936,13 +1936,13 @@
         <v>13</v>
       </c>
       <c r="AE10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF10" t="n">
         <v>34</v>
       </c>
       <c r="AG10" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AH10" t="n">
         <v>6.5</v>
@@ -1957,13 +1957,13 @@
         <v>1250</v>
       </c>
       <c r="AL10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO10" t="n">
         <v>51</v>
@@ -1975,10 +1975,10 @@
         <v>51</v>
       </c>
       <c r="AR10" t="n">
-        <v>1.68</v>
+        <v>1.8</v>
       </c>
       <c r="AS10" t="n">
-        <v>2.16</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="11">
@@ -2013,114 +2013,122 @@
         </is>
       </c>
       <c r="G11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L11" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N11" t="n">
+        <v>6</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="U11" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X11" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Y11" t="n">
         <v>2.02</v>
       </c>
-      <c r="H11" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L11" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N11" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P11" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="W11" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="X11" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>1.83</v>
-      </c>
       <c r="Z11" t="n">
-        <v>1.87</v>
+        <v>1.7</v>
       </c>
       <c r="AA11" t="n">
-        <v>6.9</v>
+        <v>5.9</v>
       </c>
       <c r="AB11" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AD11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AI11" t="n">
         <v>19</v>
       </c>
-      <c r="AE11" t="n">
-        <v>18</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>32</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AJ11" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AK11" t="n">
         <v>800</v>
       </c>
       <c r="AL11" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AM11" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AN11" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AP11" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AQ11" t="n">
-        <v>45</v>
-      </c>
-      <c r="AR11" t="inlineStr"/>
-      <c r="AS11" t="inlineStr"/>
+        <v>65</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>1.97</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2154,69 +2162,69 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="H12" t="n">
-        <v>7.7</v>
+        <v>6.9</v>
       </c>
       <c r="I12" t="n">
         <v>22</v>
       </c>
       <c r="J12" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="K12" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="L12" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="M12" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N12" t="n">
-        <v>11</v>
+        <v>10.25</v>
       </c>
       <c r="O12" t="n">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="P12" t="n">
-        <v>5.3</v>
+        <v>4.75</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.42</v>
+        <v>1.52</v>
       </c>
       <c r="R12" t="n">
-        <v>2.72</v>
+        <v>2.45</v>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="n">
-        <v>2.02</v>
+        <v>2.25</v>
       </c>
       <c r="V12" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="W12" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="X12" t="n">
-        <v>3.8</v>
+        <v>3.45</v>
       </c>
       <c r="Y12" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="Z12" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="AA12" t="n">
-        <v>7</v>
+        <v>6.3</v>
       </c>
       <c r="AB12" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="AC12" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AD12" t="n">
         <v>6.2</v>
@@ -2228,13 +2236,13 @@
         <v>50</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.25</v>
       </c>
       <c r="AH12" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AJ12" t="n">
         <v>250</v>
@@ -2736,10 +2744,10 @@
         <v>6.5</v>
       </c>
       <c r="M16" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O16" t="n">
         <v>1.44</v>
@@ -2811,7 +2819,7 @@
         <v>101</v>
       </c>
       <c r="AL16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM16" t="n">
         <v>26</v>
@@ -2867,28 +2875,28 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="H17" t="n">
         <v>3.4</v>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="J17" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K17" t="n">
         <v>2.38</v>
       </c>
       <c r="L17" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M17" t="n">
         <v>1.03</v>
       </c>
       <c r="N17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O17" t="n">
         <v>1.17</v>
@@ -2927,19 +2935,19 @@
         <v>2.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB17" t="n">
         <v>13</v>
       </c>
       <c r="AC17" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF17" t="n">
         <v>21</v>
@@ -2960,22 +2968,22 @@
         <v>101</v>
       </c>
       <c r="AL17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO17" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ17" t="n">
         <v>23</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>26</v>
       </c>
       <c r="AR17" t="inlineStr"/>
       <c r="AS17" t="inlineStr"/>
@@ -3427,91 +3435,91 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="H21" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I21" t="n">
+        <v>3</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K21" t="n">
         <v>2.4</v>
       </c>
-      <c r="J21" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K21" t="n">
-        <v>2.38</v>
-      </c>
       <c r="L21" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M21" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O21" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P21" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R21" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S21" t="n">
-        <v>1.98</v>
+        <v>1.83</v>
       </c>
       <c r="T21" t="n">
-        <v>1.88</v>
+        <v>2.03</v>
       </c>
       <c r="U21" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="V21" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="W21" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X21" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Z21" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AA21" t="n">
         <v>12</v>
       </c>
       <c r="AB21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE21" t="n">
         <v>15</v>
       </c>
-      <c r="AC21" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE21" t="n">
+      <c r="AF21" t="n">
         <v>19</v>
       </c>
-      <c r="AF21" t="n">
-        <v>23</v>
-      </c>
       <c r="AG21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH21" t="n">
         <v>7.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ21" t="n">
         <v>34</v>
@@ -3520,22 +3528,22 @@
         <v>101</v>
       </c>
       <c r="AL21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN21" t="n">
         <v>12</v>
       </c>
-      <c r="AM21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>10</v>
-      </c>
       <c r="AO21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ21" t="n">
         <v>23</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>21</v>
       </c>
       <c r="AR21" t="inlineStr"/>
       <c r="AS21" t="inlineStr"/>
@@ -3608,10 +3616,10 @@
         <v>2.35</v>
       </c>
       <c r="S22" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="T22" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="U22" t="n">
         <v>2.38</v>
@@ -3892,10 +3900,10 @@
         <v>2.5</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R24" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
@@ -3969,10 +3977,10 @@
         <v>41</v>
       </c>
       <c r="AR24" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="25">
@@ -4345,13 +4353,13 @@
         <v>2.05</v>
       </c>
       <c r="AA27" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AB27" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AC27" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AD27" t="n">
         <v>16</v>
@@ -4711,9 +4719,15 @@
           <t>Metropolitanos</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
+      <c r="G30" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I30" t="n">
+        <v>3.35</v>
+      </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-03.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-03.xlsx
@@ -752,10 +752,10 @@
         <v>2.2</v>
       </c>
       <c r="AA2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AC2" t="n">
         <v>10</v>
@@ -773,7 +773,7 @@
         <v>21</v>
       </c>
       <c r="AH2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI2" t="n">
         <v>17</v>
@@ -788,7 +788,7 @@
         <v>29</v>
       </c>
       <c r="AM2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN2" t="n">
         <v>23</v>
@@ -1119,13 +1119,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H5" t="n">
         <v>3.1</v>
       </c>
       <c r="I5" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J5" t="n">
         <v>2.88</v>
@@ -1134,7 +1134,7 @@
         <v>1.95</v>
       </c>
       <c r="L5" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M5" t="n">
         <v>1.11</v>
@@ -1155,7 +1155,7 @@
         <v>1.53</v>
       </c>
       <c r="S5" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="T5" t="n">
         <v>1.26</v>
@@ -1188,10 +1188,10 @@
         <v>9.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF5" t="n">
         <v>34</v>
@@ -1203,7 +1203,7 @@
         <v>6</v>
       </c>
       <c r="AI5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ5" t="n">
         <v>67</v>
@@ -1894,16 +1894,16 @@
         <v>2.63</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R10" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S10" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="T10" t="n">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="U10" t="n">
         <v>4.5</v>
@@ -1975,10 +1975,10 @@
         <v>51</v>
       </c>
       <c r="AR10" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="AS10" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -2016,118 +2016,118 @@
         <v>2.1</v>
       </c>
       <c r="H11" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="I11" t="n">
+        <v>3</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L11" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S11" t="n">
         <v>3.75</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L11" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N11" t="n">
-        <v>6</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="S11" t="n">
-        <v>3.8</v>
       </c>
       <c r="T11" t="n">
         <v>1.26</v>
       </c>
       <c r="U11" t="n">
-        <v>4.25</v>
+        <v>5</v>
       </c>
       <c r="V11" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="W11" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="X11" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AA11" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AB11" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE11" t="n">
         <v>21</v>
       </c>
       <c r="AF11" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>6.3</v>
+        <v>7</v>
       </c>
       <c r="AI11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ11" t="n">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="AK11" t="n">
         <v>800</v>
       </c>
       <c r="AL11" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AM11" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AN11" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AO11" t="n">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="AP11" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="AQ11" t="n">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="AR11" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -2162,54 +2162,54 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="H12" t="n">
-        <v>6.9</v>
+        <v>7.5</v>
       </c>
       <c r="I12" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J12" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="K12" t="n">
-        <v>2.75</v>
+        <v>2.92</v>
       </c>
       <c r="L12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M12" t="n">
         <v>1.03</v>
       </c>
       <c r="N12" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="O12" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="P12" t="n">
-        <v>4.75</v>
+        <v>5.2</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="R12" t="n">
-        <v>2.45</v>
+        <v>2.65</v>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="n">
-        <v>2.25</v>
+        <v>2.07</v>
       </c>
       <c r="V12" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="W12" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="X12" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="Y12" t="n">
         <v>2.55</v>
@@ -2218,16 +2218,16 @@
         <v>1.45</v>
       </c>
       <c r="AA12" t="n">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="AB12" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="AC12" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AE12" t="n">
         <v>12.5</v>
@@ -2236,37 +2236,37 @@
         <v>50</v>
       </c>
       <c r="AG12" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="AH12" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AJ12" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AK12" t="n">
         <v>700</v>
       </c>
       <c r="AL12" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AM12" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="AN12" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
       </c>
       <c r="AP12" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AQ12" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AR12" t="inlineStr"/>
       <c r="AS12" t="inlineStr"/>
@@ -2875,13 +2875,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H17" t="n">
         <v>3.4</v>
       </c>
       <c r="I17" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J17" t="n">
         <v>2.75</v>
@@ -2890,13 +2890,13 @@
         <v>2.38</v>
       </c>
       <c r="L17" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M17" t="n">
         <v>1.03</v>
       </c>
       <c r="N17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O17" t="n">
         <v>1.17</v>
@@ -2911,10 +2911,10 @@
         <v>2.35</v>
       </c>
       <c r="S17" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="T17" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="U17" t="n">
         <v>2.38</v>
@@ -2935,19 +2935,19 @@
         <v>2.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB17" t="n">
         <v>13</v>
       </c>
       <c r="AC17" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF17" t="n">
         <v>21</v>
@@ -2968,16 +2968,16 @@
         <v>101</v>
       </c>
       <c r="AL17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO17" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP17" t="n">
         <v>21</v>
@@ -3020,22 +3020,22 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.27</v>
+        <v>2.2</v>
       </c>
       <c r="H18" t="n">
         <v>3.2</v>
       </c>
       <c r="I18" t="n">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="J18" t="n">
-        <v>2.85</v>
+        <v>2.77</v>
       </c>
       <c r="K18" t="n">
         <v>2.07</v>
       </c>
       <c r="L18" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
@@ -3068,19 +3068,19 @@
         <v>2.12</v>
       </c>
       <c r="AA18" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AB18" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC18" t="n">
         <v>8.75</v>
       </c>
       <c r="AD18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE18" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AF18" t="n">
         <v>23</v>
@@ -3092,7 +3092,7 @@
         <v>6.4</v>
       </c>
       <c r="AI18" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AJ18" t="n">
         <v>45</v>
@@ -3101,22 +3101,22 @@
         <v>300</v>
       </c>
       <c r="AL18" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="AM18" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AN18" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AO18" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AP18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ18" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AR18" t="inlineStr"/>
       <c r="AS18" t="inlineStr"/>
@@ -3153,44 +3153,44 @@
         </is>
       </c>
       <c r="G19" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H19" t="n">
         <v>3.45</v>
       </c>
-      <c r="H19" t="n">
-        <v>3.3</v>
-      </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="J19" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K19" t="n">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="L19" t="n">
-        <v>2.62</v>
+        <v>2.52</v>
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="P19" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="R19" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="n">
-        <v>2.8</v>
+        <v>2.67</v>
       </c>
       <c r="V19" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W19" t="n">
         <v>1.4</v>
@@ -3199,34 +3199,34 @@
         <v>2.55</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="Z19" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="AA19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB19" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AC19" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AD19" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AE19" t="n">
         <v>30</v>
       </c>
       <c r="AF19" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AG19" t="n">
-        <v>10.25</v>
+        <v>11.25</v>
       </c>
       <c r="AH19" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="AI19" t="n">
         <v>13</v>
@@ -3235,25 +3235,25 @@
         <v>55</v>
       </c>
       <c r="AK19" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AL19" t="n">
         <v>7.9</v>
       </c>
       <c r="AM19" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AN19" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AO19" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AP19" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AQ19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR19" t="inlineStr"/>
       <c r="AS19" t="inlineStr"/>
@@ -4353,10 +4353,10 @@
         <v>2.05</v>
       </c>
       <c r="AA27" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AB27" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AC27" t="n">
         <v>8.25</v>
@@ -4377,7 +4377,7 @@
         <v>6.8</v>
       </c>
       <c r="AI27" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AJ27" t="n">
         <v>60</v>
@@ -4468,18 +4468,18 @@
         <v>3.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R28" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V28" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W28" t="n">
         <v>1.4</v>
@@ -4617,10 +4617,10 @@
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V29" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W29" t="n">
         <v>1.22</v>
@@ -4635,7 +4635,7 @@
         <v>2.25</v>
       </c>
       <c r="AA29" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AB29" t="n">
         <v>41</v>
@@ -4720,48 +4720,108 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.19</v>
+        <v>1.95</v>
       </c>
       <c r="H30" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I30" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+        <v>3.9</v>
+      </c>
+      <c r="J30" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2</v>
+      </c>
+      <c r="L30" t="n">
+        <v>4.45</v>
+      </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
+      <c r="O30" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P30" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.57</v>
+      </c>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
-      <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr"/>
-      <c r="Z30" t="inlineStr"/>
-      <c r="AA30" t="inlineStr"/>
-      <c r="AB30" t="inlineStr"/>
-      <c r="AC30" t="inlineStr"/>
-      <c r="AD30" t="inlineStr"/>
-      <c r="AE30" t="inlineStr"/>
-      <c r="AF30" t="inlineStr"/>
-      <c r="AG30" t="inlineStr"/>
-      <c r="AH30" t="inlineStr"/>
-      <c r="AI30" t="inlineStr"/>
-      <c r="AJ30" t="inlineStr"/>
-      <c r="AK30" t="inlineStr"/>
-      <c r="AL30" t="inlineStr"/>
-      <c r="AM30" t="inlineStr"/>
-      <c r="AN30" t="inlineStr"/>
-      <c r="AO30" t="inlineStr"/>
-      <c r="AP30" t="inlineStr"/>
-      <c r="AQ30" t="inlineStr"/>
+      <c r="U30" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="W30" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X30" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>90</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>900</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>20</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>65</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>45</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>55</v>
+      </c>
       <c r="AR30" t="inlineStr"/>
       <c r="AS30" t="inlineStr"/>
     </row>

--- a/Jogos_da_Semana_FlashScore_2025-02-03.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-03.xlsx
@@ -978,16 +978,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H4" t="n">
         <v>4.33</v>
       </c>
       <c r="I4" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J4" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K4" t="n">
         <v>2.3</v>
@@ -1016,10 +1016,10 @@
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="V4" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="W4" t="n">
         <v>1.36</v>
@@ -1043,7 +1043,7 @@
         <v>8.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE4" t="n">
         <v>13</v>
@@ -1058,7 +1058,7 @@
         <v>8</v>
       </c>
       <c r="AI4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ4" t="n">
         <v>51</v>
@@ -1073,7 +1073,7 @@
         <v>26</v>
       </c>
       <c r="AN4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO4" t="n">
         <v>51</v>
@@ -1304,10 +1304,10 @@
         <v>1.62</v>
       </c>
       <c r="S6" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T6" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="U6" t="n">
         <v>4</v>
@@ -1379,10 +1379,10 @@
         <v>34</v>
       </c>
       <c r="AR6" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.19</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="7">
@@ -1715,28 +1715,28 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H9" t="n">
         <v>3.25</v>
       </c>
       <c r="I9" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J9" t="n">
         <v>2.75</v>
       </c>
       <c r="K9" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L9" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N9" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O9" t="n">
         <v>1.5</v>
@@ -1745,10 +1745,10 @@
         <v>2.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R9" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S9" t="n">
         <v>4.2</v>
@@ -1757,10 +1757,10 @@
         <v>1.23</v>
       </c>
       <c r="U9" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="V9" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="W9" t="n">
         <v>1.57</v>
@@ -1769,10 +1769,10 @@
         <v>2.25</v>
       </c>
       <c r="Y9" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AA9" t="n">
         <v>5.5</v>
@@ -1784,7 +1784,7 @@
         <v>9.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE9" t="n">
         <v>19</v>
@@ -1814,7 +1814,7 @@
         <v>21</v>
       </c>
       <c r="AN9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO9" t="n">
         <v>51</v>
@@ -1826,10 +1826,10 @@
         <v>51</v>
       </c>
       <c r="AR9" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="10">
@@ -1864,28 +1864,28 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H10" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J10" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K10" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L10" t="n">
         <v>5.5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N10" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O10" t="n">
         <v>1.44</v>
@@ -1894,22 +1894,22 @@
         <v>2.63</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R10" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S10" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="T10" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="U10" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="V10" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W10" t="n">
         <v>1.53</v>
@@ -1930,34 +1930,34 @@
         <v>7.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI10" t="n">
         <v>19</v>
       </c>
       <c r="AJ10" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AK10" t="n">
         <v>1250</v>
       </c>
       <c r="AL10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM10" t="n">
         <v>23</v>
@@ -1975,10 +1975,10 @@
         <v>51</v>
       </c>
       <c r="AR10" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="AS10" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="11">
@@ -2162,19 +2162,19 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="H12" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="I12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J12" t="n">
         <v>1.42</v>
       </c>
       <c r="K12" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="L12" t="n">
         <v>15</v>
@@ -2212,37 +2212,37 @@
         <v>3.7</v>
       </c>
       <c r="Y12" t="n">
-        <v>2.55</v>
+        <v>2.65</v>
       </c>
       <c r="Z12" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AA12" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AB12" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD12" t="n">
         <v>6</v>
       </c>
-      <c r="AC12" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>6.1</v>
-      </c>
       <c r="AE12" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF12" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AG12" t="n">
         <v>10.75</v>
       </c>
       <c r="AH12" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AI12" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ12" t="n">
         <v>300</v>
@@ -2254,19 +2254,19 @@
         <v>45</v>
       </c>
       <c r="AM12" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AN12" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
       </c>
       <c r="AP12" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AQ12" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AR12" t="inlineStr"/>
       <c r="AS12" t="inlineStr"/>
@@ -2303,22 +2303,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>4.55</v>
+        <v>4.65</v>
       </c>
       <c r="H13" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I13" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="J13" t="n">
-        <v>4.75</v>
+        <v>4.9</v>
       </c>
       <c r="K13" t="n">
         <v>2.15</v>
       </c>
       <c r="L13" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="M13" t="n">
         <v>1.06</v>
@@ -2327,16 +2327,16 @@
         <v>8</v>
       </c>
       <c r="O13" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P13" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="Q13" t="n">
         <v>1.85</v>
       </c>
       <c r="R13" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
@@ -2356,52 +2356,52 @@
         <v>1.82</v>
       </c>
       <c r="Z13" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="AA13" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AC13" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AE13" t="n">
         <v>50</v>
       </c>
       <c r="AF13" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AG13" t="n">
         <v>8</v>
       </c>
       <c r="AH13" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AI13" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AJ13" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AK13" t="n">
         <v>700</v>
       </c>
       <c r="AL13" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AM13" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AN13" t="n">
         <v>8.75</v>
       </c>
       <c r="AO13" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AP13" t="n">
         <v>14.5</v>
@@ -2450,16 +2450,16 @@
         <v>4</v>
       </c>
       <c r="I14" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="J14" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="K14" t="n">
         <v>2.3</v>
       </c>
       <c r="L14" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="M14" t="n">
         <v>1.04</v>
@@ -2506,7 +2506,7 @@
         <v>23</v>
       </c>
       <c r="AC14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD14" t="n">
         <v>51</v>
@@ -2585,13 +2585,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H15" t="n">
         <v>3.3</v>
       </c>
       <c r="I15" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J15" t="n">
         <v>3</v>
@@ -2683,7 +2683,7 @@
         <v>11</v>
       </c>
       <c r="AO15" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP15" t="n">
         <v>23</v>
@@ -2744,10 +2744,10 @@
         <v>6.5</v>
       </c>
       <c r="M16" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O16" t="n">
         <v>1.44</v>
@@ -2837,10 +2837,10 @@
         <v>51</v>
       </c>
       <c r="AR16" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -2875,22 +2875,22 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H17" t="n">
         <v>3.4</v>
       </c>
       <c r="I17" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="J17" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K17" t="n">
         <v>2.38</v>
       </c>
       <c r="L17" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M17" t="n">
         <v>1.03</v>
@@ -2911,10 +2911,10 @@
         <v>2.35</v>
       </c>
       <c r="S17" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="T17" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="U17" t="n">
         <v>2.38</v>
@@ -2941,13 +2941,13 @@
         <v>13</v>
       </c>
       <c r="AC17" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD17" t="n">
         <v>21</v>
       </c>
       <c r="AE17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF17" t="n">
         <v>21</v>
@@ -2968,16 +2968,16 @@
         <v>101</v>
       </c>
       <c r="AL17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO17" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP17" t="n">
         <v>21</v>
@@ -3020,58 +3020,58 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="H18" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I18" t="n">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="J18" t="n">
-        <v>2.77</v>
+        <v>2.72</v>
       </c>
       <c r="K18" t="n">
-        <v>2.07</v>
+        <v>2.18</v>
       </c>
       <c r="L18" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="n">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="P18" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.72</v>
+        <v>1.62</v>
       </c>
       <c r="R18" t="n">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="n">
-        <v>2.65</v>
+        <v>2.47</v>
       </c>
       <c r="V18" t="n">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="W18" t="inlineStr"/>
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="Z18" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="AA18" t="n">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="AB18" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC18" t="n">
         <v>8.75</v>
@@ -3080,43 +3080,43 @@
         <v>23</v>
       </c>
       <c r="AE18" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AF18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG18" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="AI18" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AJ18" t="n">
         <v>45</v>
       </c>
       <c r="AK18" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AL18" t="n">
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="AM18" t="n">
         <v>17.5</v>
       </c>
       <c r="AN18" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AP18" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AQ18" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR18" t="inlineStr"/>
       <c r="AS18" t="inlineStr"/>
@@ -3162,13 +3162,13 @@
         <v>1.91</v>
       </c>
       <c r="J19" t="n">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="K19" t="n">
         <v>2.12</v>
       </c>
       <c r="L19" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
@@ -3182,7 +3182,7 @@
         <v>1.72</v>
       </c>
       <c r="R19" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
@@ -3205,7 +3205,7 @@
         <v>2.02</v>
       </c>
       <c r="AA19" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AB19" t="n">
         <v>21</v>
@@ -3217,10 +3217,10 @@
         <v>55</v>
       </c>
       <c r="AE19" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AF19" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AG19" t="n">
         <v>11.25</v>
@@ -3235,10 +3235,10 @@
         <v>55</v>
       </c>
       <c r="AK19" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AL19" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AM19" t="n">
         <v>9.75</v>
@@ -3253,7 +3253,7 @@
         <v>14.5</v>
       </c>
       <c r="AQ19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR19" t="inlineStr"/>
       <c r="AS19" t="inlineStr"/>
@@ -3290,22 +3290,22 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="H20" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="I20" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J20" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K20" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L20" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M20" t="n">
         <v>1.03</v>
@@ -3344,16 +3344,16 @@
         <v>3.4</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Z20" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AA20" t="n">
         <v>9</v>
       </c>
       <c r="AB20" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AC20" t="n">
         <v>8.5</v>
@@ -3362,7 +3362,7 @@
         <v>13</v>
       </c>
       <c r="AE20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF20" t="n">
         <v>21</v>
@@ -3386,7 +3386,7 @@
         <v>17</v>
       </c>
       <c r="AM20" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN20" t="n">
         <v>15</v>
@@ -3580,13 +3580,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H22" t="n">
         <v>3.75</v>
       </c>
       <c r="I22" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J22" t="n">
         <v>2.6</v>
@@ -3595,7 +3595,7 @@
         <v>2.38</v>
       </c>
       <c r="L22" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M22" t="n">
         <v>1.03</v>
@@ -3616,10 +3616,10 @@
         <v>2.35</v>
       </c>
       <c r="S22" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="T22" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="U22" t="n">
         <v>2.38</v>
@@ -3682,7 +3682,7 @@
         <v>12</v>
       </c>
       <c r="AO22" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP22" t="n">
         <v>23</v>
@@ -3791,7 +3791,7 @@
         <v>19</v>
       </c>
       <c r="AC23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD23" t="n">
         <v>34</v>
@@ -3803,7 +3803,7 @@
         <v>23</v>
       </c>
       <c r="AG23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH23" t="n">
         <v>7.5</v>
@@ -3833,7 +3833,7 @@
         <v>15</v>
       </c>
       <c r="AQ23" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR23" t="inlineStr"/>
       <c r="AS23" t="inlineStr"/>
@@ -4021,7 +4021,7 @@
         <v>3.5</v>
       </c>
       <c r="I25" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="J25" t="n">
         <v>4.75</v>
@@ -4030,7 +4030,7 @@
         <v>2.1</v>
       </c>
       <c r="L25" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="M25" t="n">
         <v>1.06</v>
@@ -4045,10 +4045,10 @@
         <v>3.25</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R25" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
@@ -4116,7 +4116,7 @@
         <v>15</v>
       </c>
       <c r="AP25" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ25" t="n">
         <v>29</v>
@@ -4186,10 +4186,10 @@
         <v>4</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R26" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
@@ -4318,13 +4318,13 @@
         <v>1.05</v>
       </c>
       <c r="N27" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="O27" t="n">
         <v>1.26</v>
       </c>
       <c r="P27" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q27" t="n">
         <v>1.78</v>
@@ -4335,16 +4335,16 @@
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="V27" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W27" t="n">
         <v>1.39</v>
       </c>
       <c r="X27" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="Y27" t="n">
         <v>1.7</v>
@@ -4356,10 +4356,10 @@
         <v>7.9</v>
       </c>
       <c r="AB27" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AC27" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AD27" t="n">
         <v>16</v>
@@ -4371,25 +4371,25 @@
         <v>23</v>
       </c>
       <c r="AG27" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AH27" t="n">
         <v>6.8</v>
       </c>
       <c r="AI27" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AJ27" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK27" t="n">
         <v>400</v>
       </c>
       <c r="AL27" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AM27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AN27" t="n">
         <v>13</v>
@@ -4401,7 +4401,7 @@
         <v>35</v>
       </c>
       <c r="AQ27" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AR27" t="inlineStr"/>
       <c r="AS27" t="inlineStr"/>
@@ -4462,24 +4462,24 @@
         <v>11</v>
       </c>
       <c r="O28" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P28" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="R28" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V28" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="W28" t="n">
         <v>1.4</v>
@@ -4585,7 +4585,7 @@
         <v>4.5</v>
       </c>
       <c r="I29" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="J29" t="n">
         <v>6</v>
@@ -4656,7 +4656,7 @@
         <v>21</v>
       </c>
       <c r="AH29" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI29" t="n">
         <v>15</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-03.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS30"/>
+  <dimension ref="A1:AS29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,144 +526,144 @@
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
+          <t>Odd_Over35_FT</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Under35_FT</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Over05_HT</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Under05_HT</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_BTTS_Yes</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_BTTS_No</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-0</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-0</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-1</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_3-0</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_3-1</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_3-2</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-0</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-1</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-2</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_3-3</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_4-4</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-1</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-2</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-2</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-3</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-3</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-3</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Over2_FT</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Under2_FT</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
           <t>Odd_Over3_FT</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>Odd_Under3_FT</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_Over35_FT</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_Under35_FT</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_Over05_HT</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_Under05_HT</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_BTTS_Yes</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_BTTS_No</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-0</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-0</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-1</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_3-0</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_3-1</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_3-2</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-0</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-1</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-2</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_3-3</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_4-4</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-1</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-2</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-2</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-3</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-3</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-3</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_Over2_FT</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_Under2_FT</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>4jKwEvHt</t>
+          <t>l2ICn6yK</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -673,142 +673,138 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ENGLAND - PREMIER LEAGUE</t>
+          <t>ITALY - SERIE A</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Chelsea</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="G2" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N2" t="n">
+        <v>11</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T2" t="n">
         <v>1.36</v>
       </c>
-      <c r="H2" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="I2" t="n">
-        <v>8</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="U2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V2" t="n">
         <v>2.75</v>
       </c>
-      <c r="L2" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="W2" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="X2" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z2" t="n">
         <v>21</v>
       </c>
-      <c r="O2" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P2" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R2" t="n">
-        <v>3</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="X2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>2.2</v>
-      </c>
       <c r="AA2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB2" t="n">
-        <v>9.5</v>
+        <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="AD2" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="AE2" t="n">
         <v>11</v>
       </c>
       <c r="AF2" t="n">
-        <v>21</v>
+        <v>6.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AH2" t="n">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="AI2" t="n">
+        <v>201</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AM2" t="n">
         <v>17</v>
       </c>
-      <c r="AJ2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>151</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>41</v>
-      </c>
       <c r="AN2" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AO2" t="n">
-        <v>101</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>41</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="AP2" t="inlineStr"/>
+      <c r="AQ2" t="inlineStr"/>
       <c r="AR2" t="inlineStr"/>
       <c r="AS2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>l2ICn6yK</t>
+          <t>SM0qnskQ</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -818,138 +814,138 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ITALY - SERIE A</t>
+          <t>SPAIN - LALIGA</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Girona</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Las Palmas</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.9</v>
+        <v>1.6</v>
       </c>
       <c r="H3" t="n">
-        <v>3.4</v>
+        <v>4.33</v>
       </c>
       <c r="I3" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N3" t="n">
+        <v>12</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R3" t="n">
         <v>2</v>
       </c>
-      <c r="J3" t="n">
-        <v>4</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N3" t="n">
-        <v>11</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
+      <c r="S3" t="n">
+        <v>3</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.4</v>
+      </c>
       <c r="U3" t="n">
-        <v>3.2</v>
+        <v>1.36</v>
       </c>
       <c r="V3" t="n">
-        <v>1.36</v>
+        <v>3</v>
       </c>
       <c r="W3" t="n">
-        <v>1.4</v>
+        <v>1.91</v>
       </c>
       <c r="X3" t="n">
-        <v>2.75</v>
+        <v>1.91</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.7</v>
+        <v>7.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>2.05</v>
+        <v>7.5</v>
       </c>
       <c r="AA3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB3" t="n">
         <v>12</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>21</v>
       </c>
       <c r="AC3" t="n">
         <v>13</v>
       </c>
       <c r="AD3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>251</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN3" t="n">
         <v>41</v>
       </c>
-      <c r="AE3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ3" t="n">
+      <c r="AO3" t="n">
         <v>41</v>
       </c>
-      <c r="AK3" t="n">
-        <v>201</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>26</v>
-      </c>
+      <c r="AP3" t="inlineStr"/>
+      <c r="AQ3" t="inlineStr"/>
       <c r="AR3" t="inlineStr"/>
       <c r="AS3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SM0qnskQ</t>
+          <t>6BSkpZeJ</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -964,133 +960,141 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Girona</t>
+          <t>Defensa y Justicia</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Las Palmas</t>
+          <t>Central Cordoba</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="H4" t="n">
-        <v>4.33</v>
+        <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>5.25</v>
+        <v>4.1</v>
       </c>
       <c r="J4" t="n">
-        <v>2.2</v>
+        <v>2.88</v>
       </c>
       <c r="K4" t="n">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="L4" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="N4" t="n">
-        <v>13</v>
+        <v>6.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>2.63</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.84</v>
+        <v>2.4</v>
       </c>
       <c r="R4" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
+        <v>1.53</v>
+      </c>
+      <c r="S4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.18</v>
+      </c>
       <c r="U4" t="n">
-        <v>3</v>
+        <v>1.53</v>
       </c>
       <c r="V4" t="n">
-        <v>1.4</v>
+        <v>2.38</v>
       </c>
       <c r="W4" t="n">
-        <v>1.36</v>
+        <v>2.05</v>
       </c>
       <c r="X4" t="n">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.91</v>
+        <v>6</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.91</v>
+        <v>8.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>7.5</v>
+        <v>19</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.5</v>
+        <v>21</v>
       </c>
       <c r="AD4" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="AE4" t="n">
-        <v>13</v>
+        <v>6.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AH4" t="n">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="AI4" t="n">
-        <v>17</v>
+        <v>501</v>
       </c>
       <c r="AJ4" t="n">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="AK4" t="n">
-        <v>301</v>
+        <v>19</v>
       </c>
       <c r="AL4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM4" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AN4" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AO4" t="n">
         <v>51</v>
       </c>
       <c r="AP4" t="n">
-        <v>41</v>
+        <v>1.85</v>
       </c>
       <c r="AQ4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR4" t="inlineStr"/>
-      <c r="AS4" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>1.26</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>6BSkpZeJ</t>
+          <t>Qwxeea4K</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1100,7 +1104,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>19:15</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1110,136 +1114,136 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Defensa y Justicia</t>
+          <t>Estudiantes L.P.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Central Cordoba</t>
+          <t>Racing Club</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="H5" t="n">
         <v>3.1</v>
       </c>
       <c r="I5" t="n">
-        <v>4.1</v>
+        <v>2.9</v>
       </c>
       <c r="J5" t="n">
-        <v>2.88</v>
+        <v>3.25</v>
       </c>
       <c r="K5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N5" t="n">
+        <v>8</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S5" t="n">
+        <v>4</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W5" t="n">
         <v>1.95</v>
       </c>
-      <c r="L5" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S5" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="U5" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="W5" t="n">
-        <v>1.53</v>
-      </c>
       <c r="X5" t="n">
-        <v>2.38</v>
+        <v>1.8</v>
       </c>
       <c r="Y5" t="n">
-        <v>2.05</v>
+        <v>7.5</v>
       </c>
       <c r="Z5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>351</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP5" t="n">
         <v>1.7</v>
       </c>
-      <c r="AA5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>501</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>41</v>
-      </c>
       <c r="AQ5" t="n">
-        <v>51</v>
+        <v>2.17</v>
       </c>
       <c r="AR5" t="n">
-        <v>1.85</v>
+        <v>3.45</v>
       </c>
       <c r="AS5" t="n">
-        <v>2</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Qwxeea4K</t>
+          <t>xIe0ZHs1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1259,136 +1263,136 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Estudiantes L.P.</t>
+          <t>Tigre</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Racing Club</t>
+          <t>Union de Santa Fe</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="H6" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="J6" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K6" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="L6" t="n">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="N6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O6" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R6" t="n">
         <v>1.4</v>
       </c>
-      <c r="P6" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
+        <v>6</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="U6" t="n">
         <v>1.62</v>
       </c>
-      <c r="S6" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="U6" t="n">
-        <v>4</v>
-      </c>
       <c r="V6" t="n">
-        <v>1.22</v>
+        <v>2.2</v>
       </c>
       <c r="W6" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="X6" t="n">
-        <v>2.5</v>
+        <v>1.62</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.95</v>
+        <v>5.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.8</v>
+        <v>9.5</v>
       </c>
       <c r="AA6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>501</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>7.5</v>
       </c>
-      <c r="AB6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI6" t="n">
+      <c r="AK6" t="n">
         <v>15</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AL6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AO6" t="n">
         <v>51</v>
       </c>
-      <c r="AK6" t="n">
-        <v>351</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>29</v>
-      </c>
       <c r="AP6" t="n">
-        <v>26</v>
+        <v>2.04</v>
       </c>
       <c r="AQ6" t="n">
-        <v>34</v>
+        <v>1.72</v>
       </c>
       <c r="AR6" t="n">
-        <v>1.72</v>
+        <v>4.9</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.14</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>xIe0ZHs1</t>
+          <t>0hbjpfDG</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1398,7 +1402,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>19:15</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1408,136 +1412,136 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Tigre</t>
+          <t>Argentinos Jrs</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Union de Santa Fe</t>
+          <t>Platense</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="H7" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J7" t="n">
         <v>3</v>
       </c>
-      <c r="I7" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.2</v>
-      </c>
       <c r="K7" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L7" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="N7" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S7" t="n">
+        <v>8</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V7" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AF7" t="n">
         <v>6</v>
       </c>
-      <c r="O7" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S7" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="U7" t="n">
-        <v>6</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="X7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>41</v>
-      </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="AH7" t="n">
-        <v>6</v>
+        <v>126</v>
       </c>
       <c r="AI7" t="n">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="AJ7" t="n">
-        <v>81</v>
+        <v>7.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>501</v>
+        <v>19</v>
       </c>
       <c r="AL7" t="n">
-        <v>7.5</v>
+        <v>17</v>
       </c>
       <c r="AM7" t="n">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="AN7" t="n">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="AO7" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AP7" t="n">
-        <v>41</v>
+        <v>2.5</v>
       </c>
       <c r="AQ7" t="n">
-        <v>51</v>
+        <v>1.53</v>
       </c>
       <c r="AR7" t="n">
-        <v>2.04</v>
+        <v>6.2</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.72</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>0hbjpfDG</t>
+          <t>t4sQkwSs</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1557,136 +1561,136 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Argentinos Jrs</t>
+          <t>Belgrano</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Platense</t>
+          <t>Ind. Rivadavia</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="H8" t="n">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="I8" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="K8" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="L8" t="n">
+        <v>5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N8" t="n">
+        <v>7</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S8" t="n">
         <v>5.5</v>
       </c>
-      <c r="M8" t="n">
+      <c r="T8" t="n">
         <v>1.14</v>
       </c>
-      <c r="N8" t="n">
+      <c r="U8" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="X8" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Y8" t="n">
         <v>5.5</v>
       </c>
-      <c r="O8" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S8" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="U8" t="n">
-        <v>8</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="X8" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>2.63</v>
-      </c>
       <c r="Z8" t="n">
-        <v>1.44</v>
+        <v>7.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>4.5</v>
+        <v>9.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>7.5</v>
+        <v>17</v>
       </c>
       <c r="AC8" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AD8" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AE8" t="n">
-        <v>23</v>
+        <v>6.5</v>
       </c>
       <c r="AF8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>101</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM8" t="n">
         <v>51</v>
       </c>
-      <c r="AG8" t="n">
-        <v>5</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>126</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>101</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>21</v>
-      </c>
       <c r="AN8" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="AO8" t="n">
         <v>51</v>
       </c>
       <c r="AP8" t="n">
-        <v>51</v>
+        <v>1.98</v>
       </c>
       <c r="AQ8" t="n">
-        <v>67</v>
+        <v>1.88</v>
       </c>
       <c r="AR8" t="n">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.53</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>t4sQkwSs</t>
+          <t>pYRx8Mp4</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1696,146 +1700,146 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ARGENTINA - TORNEO BETANO</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Belgrano</t>
+          <t>Pereira</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Ind. Rivadavia</t>
+          <t>Alianza</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="H9" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I9" t="n">
-        <v>4.33</v>
+        <v>5.25</v>
       </c>
       <c r="J9" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="K9" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="L9" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N9" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P9" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R9" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S9" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="T9" t="n">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
       <c r="U9" t="n">
-        <v>5</v>
+        <v>1.53</v>
       </c>
       <c r="V9" t="n">
-        <v>1.17</v>
+        <v>2.38</v>
       </c>
       <c r="W9" t="n">
-        <v>1.57</v>
+        <v>2.2</v>
       </c>
       <c r="X9" t="n">
-        <v>2.25</v>
+        <v>1.62</v>
       </c>
       <c r="Y9" t="n">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.62</v>
+        <v>7.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>5.5</v>
+        <v>9.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.5</v>
+        <v>19</v>
       </c>
       <c r="AD9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL9" t="n">
         <v>17</v>
       </c>
-      <c r="AE9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF9" t="n">
+      <c r="AM9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN9" t="n">
         <v>41</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>81</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>101</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>15</v>
       </c>
       <c r="AO9" t="n">
         <v>51</v>
       </c>
       <c r="AP9" t="n">
-        <v>41</v>
+        <v>1.85</v>
       </c>
       <c r="AQ9" t="n">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="AR9" t="n">
-        <v>1.95</v>
+        <v>3.8</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.9</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>pYRx8Mp4</t>
+          <t>IJ3D7DjL</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1845,7 +1849,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>22:30</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1855,37 +1859,37 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Pereira</t>
+          <t>Llaneros</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Alianza</t>
+          <t>U. Magdalena</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="H10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J10" t="n">
         <v>3</v>
-      </c>
-      <c r="I10" t="n">
-        <v>5</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2.6</v>
       </c>
       <c r="K10" t="n">
         <v>1.95</v>
       </c>
       <c r="L10" t="n">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="M10" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="O10" t="n">
         <v>1.44</v>
@@ -1894,97 +1898,97 @@
         <v>2.63</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R10" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S10" t="n">
-        <v>3.9</v>
+        <v>5</v>
       </c>
       <c r="T10" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="U10" t="n">
-        <v>5</v>
+        <v>1.57</v>
       </c>
       <c r="V10" t="n">
-        <v>1.17</v>
+        <v>2.25</v>
       </c>
       <c r="W10" t="n">
-        <v>1.53</v>
+        <v>2.1</v>
       </c>
       <c r="X10" t="n">
-        <v>2.38</v>
+        <v>1.67</v>
       </c>
       <c r="Y10" t="n">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="Z10" t="n">
-        <v>1.62</v>
+        <v>9</v>
       </c>
       <c r="AA10" t="n">
-        <v>5.5</v>
+        <v>10</v>
       </c>
       <c r="AB10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>800</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>7.5</v>
       </c>
-      <c r="AC10" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD10" t="n">
+      <c r="AK10" t="n">
         <v>15</v>
       </c>
-      <c r="AE10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF10" t="n">
+      <c r="AL10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM10" t="n">
         <v>41</v>
       </c>
-      <c r="AG10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>81</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>23</v>
-      </c>
       <c r="AN10" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AO10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP10" t="n">
-        <v>41</v>
+        <v>1.88</v>
       </c>
       <c r="AQ10" t="n">
-        <v>51</v>
+        <v>1.98</v>
       </c>
       <c r="AR10" t="n">
-        <v>1.88</v>
+        <v>3.75</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.98</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>IJ3D7DjL</t>
+          <t>xAsYdME5</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1994,146 +1998,138 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>22:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>CYPRUS - CYPRUS LEAGUE</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Llaneros</t>
+          <t>Pafos</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>U. Magdalena</t>
+          <t>Omonia 29th May</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.1</v>
+        <v>1.11</v>
       </c>
       <c r="H11" t="n">
-        <v>3.25</v>
+        <v>7.6</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="J11" t="n">
-        <v>3</v>
+        <v>1.42</v>
       </c>
       <c r="K11" t="n">
-        <v>1.95</v>
+        <v>2.95</v>
       </c>
       <c r="L11" t="n">
-        <v>4.33</v>
+        <v>15</v>
       </c>
       <c r="M11" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>7.5</v>
+        <v>10.75</v>
       </c>
       <c r="O11" t="n">
-        <v>1.44</v>
+        <v>1.14</v>
       </c>
       <c r="P11" t="n">
-        <v>2.63</v>
+        <v>5.2</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.4</v>
+        <v>1.45</v>
       </c>
       <c r="R11" t="n">
-        <v>1.53</v>
+        <v>2.65</v>
       </c>
       <c r="S11" t="n">
-        <v>3.75</v>
+        <v>2.07</v>
       </c>
       <c r="T11" t="n">
-        <v>1.26</v>
+        <v>1.7</v>
       </c>
       <c r="U11" t="n">
-        <v>5</v>
+        <v>1.25</v>
       </c>
       <c r="V11" t="n">
-        <v>1.17</v>
+        <v>3.7</v>
       </c>
       <c r="W11" t="n">
-        <v>1.53</v>
+        <v>2.65</v>
       </c>
       <c r="X11" t="n">
-        <v>2.38</v>
+        <v>1.42</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.1</v>
+        <v>6.6</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.67</v>
+        <v>5.9</v>
       </c>
       <c r="AA11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB11" t="n">
         <v>6</v>
       </c>
-      <c r="AB11" t="n">
-        <v>9</v>
-      </c>
       <c r="AC11" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AD11" t="n">
+        <v>55</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AF11" t="n">
         <v>19</v>
       </c>
-      <c r="AE11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>41</v>
-      </c>
       <c r="AG11" t="n">
-        <v>7.5</v>
+        <v>55</v>
       </c>
       <c r="AH11" t="n">
-        <v>7</v>
+        <v>300</v>
       </c>
       <c r="AI11" t="n">
-        <v>21</v>
+        <v>700</v>
       </c>
       <c r="AJ11" t="n">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AK11" t="n">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="AL11" t="n">
-        <v>7.5</v>
+        <v>100</v>
       </c>
       <c r="AM11" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>12</v>
+        <v>700</v>
       </c>
       <c r="AO11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>2</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="AP11" t="inlineStr"/>
+      <c r="AQ11" t="inlineStr"/>
+      <c r="AR11" t="inlineStr"/>
+      <c r="AS11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>xAsYdME5</t>
+          <t>2RqaBLTb</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2143,7 +2139,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2153,128 +2149,128 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Pafos</t>
+          <t>Anorthosis</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Omonia 29th May</t>
+          <t>APOEL</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.11</v>
+        <v>5</v>
       </c>
       <c r="H12" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N12" t="n">
+        <v>8</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="V12" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>100</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>55</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>55</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF12" t="n">
         <v>7.6</v>
       </c>
-      <c r="I12" t="n">
-        <v>26</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="L12" t="n">
-        <v>15</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N12" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P12" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="R12" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="X12" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>55</v>
-      </c>
       <c r="AG12" t="n">
-        <v>10.75</v>
+        <v>17</v>
       </c>
       <c r="AH12" t="n">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="AI12" t="n">
-        <v>55</v>
+        <v>700</v>
       </c>
       <c r="AJ12" t="n">
-        <v>300</v>
+        <v>6.8</v>
       </c>
       <c r="AK12" t="n">
-        <v>700</v>
+        <v>8.5</v>
       </c>
       <c r="AL12" t="n">
-        <v>45</v>
+        <v>8.5</v>
       </c>
       <c r="AM12" t="n">
-        <v>400</v>
+        <v>14</v>
       </c>
       <c r="AN12" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>700</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>400</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="AP12" t="inlineStr"/>
+      <c r="AQ12" t="inlineStr"/>
       <c r="AR12" t="inlineStr"/>
       <c r="AS12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2RqaBLTb</t>
+          <t>rajMleGt</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2284,138 +2280,138 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>CYPRUS - CYPRUS LEAGUE</t>
+          <t>CZECH REPUBLIC - CHANCE LIGA</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Anorthosis</t>
+          <t>Sigma Olomouc</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>APOEL</t>
+          <t>Plzen</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>4.65</v>
+        <v>4.1</v>
       </c>
       <c r="H13" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="I13" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="J13" t="n">
-        <v>4.9</v>
+        <v>4.75</v>
       </c>
       <c r="K13" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="L13" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N13" t="n">
+        <v>15</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="V13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="X13" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF13" t="n">
         <v>8</v>
       </c>
-      <c r="O13" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="W13" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="X13" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>90</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>50</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>55</v>
-      </c>
       <c r="AG13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>201</v>
+      </c>
+      <c r="AJ13" t="n">
         <v>8</v>
       </c>
-      <c r="AH13" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>90</v>
-      </c>
       <c r="AK13" t="n">
-        <v>700</v>
+        <v>8.5</v>
       </c>
       <c r="AL13" t="n">
-        <v>6.7</v>
+        <v>8.5</v>
       </c>
       <c r="AM13" t="n">
-        <v>8.25</v>
+        <v>13</v>
       </c>
       <c r="AN13" t="n">
-        <v>8.75</v>
+        <v>13</v>
       </c>
       <c r="AO13" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>29</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="AP13" t="inlineStr"/>
+      <c r="AQ13" t="inlineStr"/>
       <c r="AR13" t="inlineStr"/>
       <c r="AS13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>rajMleGt</t>
+          <t>fXroNY65</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2425,138 +2421,138 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>CZECH REPUBLIC - CHANCE LIGA</t>
+          <t>ENGLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Sigma Olomouc</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Plzen</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4.2</v>
+        <v>2.35</v>
       </c>
       <c r="H14" t="n">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="I14" t="n">
-        <v>1.65</v>
+        <v>3</v>
       </c>
       <c r="J14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K14" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L14" t="n">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="M14" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O14" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="P14" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.73</v>
+        <v>1.95</v>
       </c>
       <c r="R14" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
+        <v>1.9</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.33</v>
+      </c>
       <c r="U14" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V14" t="n">
         <v>2.75</v>
       </c>
-      <c r="V14" t="n">
-        <v>1.4</v>
-      </c>
       <c r="W14" t="n">
-        <v>1.33</v>
+        <v>1.67</v>
       </c>
       <c r="X14" t="n">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.75</v>
+        <v>8.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AA14" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC14" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AD14" t="n">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="AE14" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="AF14" t="n">
-        <v>34</v>
+        <v>6.5</v>
       </c>
       <c r="AG14" t="n">
         <v>13</v>
       </c>
       <c r="AH14" t="n">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="AI14" t="n">
+        <v>201</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK14" t="n">
         <v>15</v>
       </c>
-      <c r="AJ14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>201</v>
-      </c>
       <c r="AL14" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AM14" t="n">
-        <v>8.5</v>
+        <v>29</v>
       </c>
       <c r="AN14" t="n">
-        <v>8.5</v>
+        <v>23</v>
       </c>
       <c r="AO14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>23</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="AP14" t="inlineStr"/>
+      <c r="AQ14" t="inlineStr"/>
       <c r="AR14" t="inlineStr"/>
       <c r="AS14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>fXroNY65</t>
+          <t>MFvbHFqm</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2566,138 +2562,146 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ENGLAND - CHAMPIONSHIP</t>
+          <t>GREECE - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Asteras Tripolis</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Lamia</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.35</v>
+        <v>1.65</v>
       </c>
       <c r="H15" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>2.38</v>
       </c>
       <c r="K15" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L15" t="n">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="M15" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N15" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="O15" t="n">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="P15" t="n">
-        <v>3.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.93</v>
+        <v>2.4</v>
       </c>
       <c r="R15" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
+        <v>1.53</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1.17</v>
+      </c>
       <c r="U15" t="n">
-        <v>3.2</v>
+        <v>1.53</v>
       </c>
       <c r="V15" t="n">
-        <v>1.36</v>
+        <v>2.38</v>
       </c>
       <c r="W15" t="n">
-        <v>1.4</v>
+        <v>2.38</v>
       </c>
       <c r="X15" t="n">
-        <v>2.75</v>
+        <v>1.53</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.67</v>
+        <v>5</v>
       </c>
       <c r="Z15" t="n">
-        <v>2.1</v>
+        <v>6.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB15" t="n">
         <v>12</v>
       </c>
       <c r="AC15" t="n">
-        <v>9.5</v>
+        <v>17</v>
       </c>
       <c r="AD15" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AE15" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>101</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>101</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL15" t="n">
         <v>19</v>
       </c>
-      <c r="AF15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>201</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>10</v>
-      </c>
       <c r="AM15" t="n">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="AN15" t="n">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="AO15" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AP15" t="n">
-        <v>23</v>
+        <v>1.85</v>
       </c>
       <c r="AQ15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR15" t="inlineStr"/>
-      <c r="AS15" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>1.27</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MFvbHFqm</t>
+          <t>xjsGqeof</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2707,146 +2711,142 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>GREECE - SUPER LEAGUE</t>
+          <t>INDIA - ISL</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Asteras Tripolis</t>
+          <t>Odisha FC</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Lamia</t>
+          <t>North East Utd</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.65</v>
+        <v>2.15</v>
       </c>
       <c r="H16" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I16" t="n">
-        <v>5.5</v>
+        <v>2.8</v>
       </c>
       <c r="J16" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K16" t="n">
         <v>2.38</v>
       </c>
-      <c r="K16" t="n">
-        <v>2</v>
-      </c>
       <c r="L16" t="n">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="M16" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="N16" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="O16" t="n">
-        <v>1.44</v>
+        <v>1.17</v>
       </c>
       <c r="P16" t="n">
-        <v>2.63</v>
+        <v>5</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.4</v>
+        <v>1.57</v>
       </c>
       <c r="R16" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T16" t="n">
         <v>1.53</v>
       </c>
-      <c r="S16" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.27</v>
-      </c>
       <c r="U16" t="n">
-        <v>5</v>
+        <v>1.29</v>
       </c>
       <c r="V16" t="n">
-        <v>1.17</v>
+        <v>3.5</v>
       </c>
       <c r="W16" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X16" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>2.38</v>
+        <v>11</v>
       </c>
       <c r="Z16" t="n">
-        <v>1.53</v>
+        <v>13</v>
       </c>
       <c r="AA16" t="n">
-        <v>5</v>
+        <v>9.5</v>
       </c>
       <c r="AB16" t="n">
-        <v>6.5</v>
+        <v>21</v>
       </c>
       <c r="AC16" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AD16" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AE16" t="n">
         <v>17</v>
       </c>
       <c r="AF16" t="n">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="AG16" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AH16" t="n">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="AI16" t="n">
+        <v>101</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO16" t="n">
         <v>23</v>
       </c>
-      <c r="AJ16" t="n">
-        <v>101</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>101</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>10</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>67</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>51</v>
-      </c>
+      <c r="AP16" t="inlineStr"/>
+      <c r="AQ16" t="inlineStr"/>
       <c r="AR16" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AS16" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>xjsGqeof</t>
+          <t>ADv84rGl</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2856,142 +2856,130 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>05:30</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>INDIA - ISL</t>
+          <t>INDONESIA - LIGA 1</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Odisha FC</t>
+          <t>Arema FC</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>North East Utd</t>
+          <t>Bali United</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="H17" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I17" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="J17" t="n">
-        <v>2.88</v>
+        <v>2.85</v>
       </c>
       <c r="K17" t="n">
-        <v>2.38</v>
+        <v>2.12</v>
       </c>
       <c r="L17" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N17" t="n">
-        <v>15</v>
-      </c>
+        <v>3.35</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
       <c r="O17" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="P17" t="n">
-        <v>5</v>
+        <v>3.45</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="R17" t="n">
-        <v>2.35</v>
+        <v>1.98</v>
       </c>
       <c r="S17" t="n">
-        <v>1.95</v>
+        <v>2.52</v>
       </c>
       <c r="T17" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="U17" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V17" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="n">
         <v>1.53</v>
       </c>
-      <c r="W17" t="n">
-        <v>1.29</v>
-      </c>
       <c r="X17" t="n">
-        <v>3.5</v>
+        <v>2.18</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.5</v>
+        <v>9.75</v>
       </c>
       <c r="Z17" t="n">
-        <v>2.5</v>
+        <v>13</v>
       </c>
       <c r="AA17" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AB17" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="AC17" t="n">
-        <v>9.5</v>
+        <v>17</v>
       </c>
       <c r="AD17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE17" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AF17" t="n">
-        <v>21</v>
+        <v>6.6</v>
       </c>
       <c r="AG17" t="n">
-        <v>17</v>
+        <v>11.75</v>
       </c>
       <c r="AH17" t="n">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="AI17" t="n">
-        <v>11</v>
+        <v>250</v>
       </c>
       <c r="AJ17" t="n">
-        <v>34</v>
+        <v>10.75</v>
       </c>
       <c r="AK17" t="n">
-        <v>101</v>
+        <v>16.5</v>
       </c>
       <c r="AL17" t="n">
-        <v>13</v>
+        <v>10.25</v>
       </c>
       <c r="AM17" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="AN17" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="AO17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>23</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="AP17" t="inlineStr"/>
+      <c r="AQ17" t="inlineStr"/>
       <c r="AR17" t="inlineStr"/>
       <c r="AS17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ADv84rGl</t>
+          <t>IwrG2Mp1</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3001,7 +2989,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>05:30</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -3011,120 +2999,124 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Arema FC</t>
+          <t>PSIS Semarang</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Bali United</t>
+          <t>Dewa United</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.18</v>
+        <v>3.65</v>
       </c>
       <c r="H18" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I18" t="n">
-        <v>2.95</v>
+        <v>1.9</v>
       </c>
       <c r="J18" t="n">
-        <v>2.72</v>
+        <v>4.05</v>
       </c>
       <c r="K18" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="L18" t="n">
-        <v>3.45</v>
+        <v>2.45</v>
       </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="P18" t="n">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="Q18" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="W18" t="n">
         <v>1.62</v>
       </c>
-      <c r="R18" t="n">
+      <c r="X18" t="n">
         <v>2.02</v>
       </c>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
       <c r="Y18" t="n">
-        <v>1.52</v>
+        <v>11.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>2.2</v>
+        <v>20</v>
       </c>
       <c r="AA18" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>55</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>32</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>35</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>55</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>400</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AK18" t="n">
         <v>9.75</v>
       </c>
-      <c r="AB18" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AD18" t="n">
+      <c r="AL18" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>14</v>
+      </c>
+      <c r="AO18" t="n">
         <v>23</v>
       </c>
-      <c r="AE18" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>45</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>250</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>37</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>26</v>
-      </c>
+      <c r="AP18" t="inlineStr"/>
+      <c r="AQ18" t="inlineStr"/>
       <c r="AR18" t="inlineStr"/>
       <c r="AS18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IwrG2Mp1</t>
+          <t>UNEKB0qn</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3134,134 +3126,142 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>INDONESIA - LIGA 1</t>
+          <t>ISRAEL - LIGAT HA'AL</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>PSIS Semarang</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Dewa United</t>
+          <t>Beitar Jerusalem</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.6</v>
+        <v>1.67</v>
       </c>
       <c r="H19" t="n">
-        <v>3.45</v>
+        <v>3.8</v>
       </c>
       <c r="I19" t="n">
-        <v>1.91</v>
+        <v>4.75</v>
       </c>
       <c r="J19" t="n">
-        <v>4.05</v>
+        <v>2.25</v>
       </c>
       <c r="K19" t="n">
-        <v>2.12</v>
+        <v>2.38</v>
       </c>
       <c r="L19" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N19" t="n">
+        <v>15</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S19" t="n">
         <v>2.5</v>
       </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P19" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
+      <c r="T19" t="n">
+        <v>1.5</v>
+      </c>
       <c r="U19" t="n">
-        <v>2.67</v>
+        <v>1.3</v>
       </c>
       <c r="V19" t="n">
-        <v>1.36</v>
+        <v>3.4</v>
       </c>
       <c r="W19" t="n">
-        <v>1.4</v>
+        <v>1.62</v>
       </c>
       <c r="X19" t="n">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.62</v>
+        <v>9</v>
       </c>
       <c r="Z19" t="n">
-        <v>2.02</v>
+        <v>9.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>11.75</v>
+        <v>8.5</v>
       </c>
       <c r="AB19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD19" t="n">
         <v>21</v>
       </c>
-      <c r="AC19" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>55</v>
-      </c>
       <c r="AE19" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="AF19" t="n">
-        <v>35</v>
+        <v>7.5</v>
       </c>
       <c r="AG19" t="n">
-        <v>11.25</v>
+        <v>13</v>
       </c>
       <c r="AH19" t="n">
-        <v>6.7</v>
+        <v>41</v>
       </c>
       <c r="AI19" t="n">
-        <v>13</v>
+        <v>151</v>
       </c>
       <c r="AJ19" t="n">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="AK19" t="n">
-        <v>400</v>
+        <v>26</v>
       </c>
       <c r="AL19" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AM19" t="n">
-        <v>9.75</v>
+        <v>51</v>
       </c>
       <c r="AN19" t="n">
-        <v>8.25</v>
+        <v>34</v>
       </c>
       <c r="AO19" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR19" t="inlineStr"/>
-      <c r="AS19" t="inlineStr"/>
+        <v>34</v>
+      </c>
+      <c r="AP19" t="inlineStr"/>
+      <c r="AQ19" t="inlineStr"/>
+      <c r="AR19" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>UNEKB0qn</t>
+          <t>I5YI2YlQ</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3271,142 +3271,142 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>ISRAEL - LIGAT HA'AL</t>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>De Graafschap</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Beitar Jerusalem</t>
+          <t>Den Haag</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="H20" t="n">
         <v>3.75</v>
       </c>
       <c r="I20" t="n">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="J20" t="n">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="K20" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L20" t="n">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M20" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N20" t="n">
+        <v>19</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="V20" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X20" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC20" t="n">
         <v>15</v>
       </c>
-      <c r="O20" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P20" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R20" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S20" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="U20" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W20" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="X20" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AD20" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AE20" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AF20" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>101</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN20" t="n">
         <v>21</v>
       </c>
-      <c r="AG20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>151</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>15</v>
-      </c>
       <c r="AO20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR20" t="inlineStr"/>
-      <c r="AS20" t="inlineStr"/>
+        <v>23</v>
+      </c>
+      <c r="AP20" t="inlineStr"/>
+      <c r="AQ20" t="inlineStr"/>
+      <c r="AR20" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>2.03</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>I5YI2YlQ</t>
+          <t>rqrAzVNN</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3426,132 +3426,132 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>Jong AZ</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Den Haag</t>
+          <t>Venlo</t>
         </is>
       </c>
       <c r="G21" t="n">
         <v>2.05</v>
       </c>
       <c r="H21" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L21" t="n">
         <v>3.6</v>
       </c>
-      <c r="I21" t="n">
-        <v>3</v>
-      </c>
-      <c r="J21" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K21" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L21" t="n">
+      <c r="M21" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N21" t="n">
+        <v>17</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="V21" t="n">
         <v>3.5</v>
       </c>
-      <c r="M21" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N21" t="n">
+      <c r="W21" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X21" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB21" t="n">
         <v>19</v>
       </c>
-      <c r="O21" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P21" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R21" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="T21" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="U21" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W21" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="X21" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>13</v>
-      </c>
       <c r="AC21" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AD21" t="n">
         <v>21</v>
       </c>
       <c r="AE21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>101</v>
+      </c>
+      <c r="AJ21" t="n">
         <v>15</v>
       </c>
-      <c r="AF21" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ21" t="n">
+      <c r="AK21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM21" t="n">
         <v>34</v>
       </c>
-      <c r="AK21" t="n">
-        <v>101</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>19</v>
-      </c>
       <c r="AN21" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AO21" t="n">
-        <v>34</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR21" t="inlineStr"/>
-      <c r="AS21" t="inlineStr"/>
+        <v>26</v>
+      </c>
+      <c r="AP21" t="inlineStr"/>
+      <c r="AQ21" t="inlineStr"/>
+      <c r="AR21" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>1.88</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>rqrAzVNN</t>
+          <t>SGJtV8oo</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3571,31 +3571,31 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Jong AZ</t>
+          <t>Jong Utrecht</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Venlo</t>
+          <t>Jong Ajax</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.05</v>
+        <v>3.1</v>
       </c>
       <c r="H22" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I22" t="n">
-        <v>3.3</v>
+        <v>2.15</v>
       </c>
       <c r="J22" t="n">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="K22" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L22" t="n">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="M22" t="n">
         <v>1.03</v>
@@ -3604,99 +3604,99 @@
         <v>17</v>
       </c>
       <c r="O22" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P22" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R22" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S22" t="n">
-        <v>1.98</v>
+        <v>2.2</v>
       </c>
       <c r="T22" t="n">
-        <v>1.88</v>
+        <v>1.62</v>
       </c>
       <c r="U22" t="n">
-        <v>2.38</v>
+        <v>1.29</v>
       </c>
       <c r="V22" t="n">
-        <v>1.53</v>
+        <v>3.5</v>
       </c>
       <c r="W22" t="n">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="X22" t="n">
-        <v>3.5</v>
+        <v>2.63</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.5</v>
+        <v>15</v>
       </c>
       <c r="Z22" t="n">
-        <v>2.5</v>
+        <v>19</v>
       </c>
       <c r="AA22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AG22" t="n">
         <v>11</v>
       </c>
-      <c r="AB22" t="n">
+      <c r="AH22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>101</v>
+      </c>
+      <c r="AJ22" t="n">
         <v>12</v>
       </c>
-      <c r="AC22" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>34</v>
-      </c>
       <c r="AK22" t="n">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="AL22" t="n">
-        <v>15</v>
+        <v>9.5</v>
       </c>
       <c r="AM22" t="n">
         <v>21</v>
       </c>
       <c r="AN22" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AO22" t="n">
-        <v>34</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR22" t="inlineStr"/>
-      <c r="AS22" t="inlineStr"/>
+        <v>19</v>
+      </c>
+      <c r="AP22" t="inlineStr"/>
+      <c r="AQ22" t="inlineStr"/>
+      <c r="AR22" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>2.03</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SGJtV8oo</t>
+          <t>84npctW7</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3706,134 +3706,134 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EERSTE DIVISIE</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Jong Utrecht</t>
+          <t>Slask Wroclaw</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Jong Ajax</t>
+          <t>Piast Gliwice</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="H23" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="I23" t="n">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="J23" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="K23" t="n">
-        <v>2.4</v>
+        <v>1.91</v>
       </c>
       <c r="L23" t="n">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="M23" t="n">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="N23" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="O23" t="n">
-        <v>1.14</v>
+        <v>1.5</v>
       </c>
       <c r="P23" t="n">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.53</v>
+        <v>2.5</v>
       </c>
       <c r="R23" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="S23" t="n">
-        <v>1.83</v>
+        <v>5</v>
       </c>
       <c r="T23" t="n">
-        <v>2.03</v>
+        <v>1.17</v>
       </c>
       <c r="U23" t="n">
-        <v>2.2</v>
+        <v>1.57</v>
       </c>
       <c r="V23" t="n">
-        <v>1.62</v>
+        <v>2.25</v>
       </c>
       <c r="W23" t="n">
-        <v>1.29</v>
+        <v>2.1</v>
       </c>
       <c r="X23" t="n">
-        <v>3.5</v>
+        <v>1.67</v>
       </c>
       <c r="Y23" t="n">
-        <v>1.44</v>
+        <v>6.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>2.63</v>
+        <v>12</v>
       </c>
       <c r="AA23" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AB23" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AC23" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="AD23" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE23" t="n">
-        <v>21</v>
+        <v>6.5</v>
       </c>
       <c r="AF23" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="AG23" t="n">
         <v>19</v>
       </c>
       <c r="AH23" t="n">
-        <v>7.5</v>
+        <v>67</v>
       </c>
       <c r="AI23" t="n">
+        <v>501</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL23" t="n">
         <v>11</v>
       </c>
-      <c r="AJ23" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>101</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>12</v>
-      </c>
       <c r="AM23" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="AN23" t="n">
-        <v>9.5</v>
+        <v>26</v>
       </c>
       <c r="AO23" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AP23" t="n">
-        <v>15</v>
+        <v>1.93</v>
       </c>
       <c r="AQ23" t="n">
-        <v>19</v>
+        <v>1.93</v>
       </c>
       <c r="AR23" t="inlineStr"/>
       <c r="AS23" t="inlineStr"/>
@@ -3841,7 +3841,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>84npctW7</t>
+          <t>b5oRx1m1</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3851,142 +3851,138 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>PORTUGAL - LIGA PORTUGAL</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Slask Wroclaw</t>
+          <t>Moreirense</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Piast Gliwice</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="I24" t="n">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="J24" t="n">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="K24" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="L24" t="n">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="M24" t="n">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="N24" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O24" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="P24" t="n">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.5</v>
+        <v>2.08</v>
       </c>
       <c r="R24" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
+        <v>1.73</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.25</v>
+      </c>
       <c r="U24" t="n">
-        <v>5</v>
+        <v>1.44</v>
       </c>
       <c r="V24" t="n">
-        <v>1.17</v>
+        <v>2.63</v>
       </c>
       <c r="W24" t="n">
-        <v>1.57</v>
+        <v>1.95</v>
       </c>
       <c r="X24" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="Y24" t="n">
-        <v>2.1</v>
+        <v>11</v>
       </c>
       <c r="Z24" t="n">
-        <v>1.67</v>
+        <v>21</v>
       </c>
       <c r="AA24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF24" t="n">
         <v>6.5</v>
       </c>
-      <c r="AB24" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>41</v>
-      </c>
       <c r="AG24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>301</v>
+      </c>
+      <c r="AJ24" t="n">
         <v>6.5</v>
       </c>
-      <c r="AH24" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>67</v>
-      </c>
       <c r="AK24" t="n">
-        <v>501</v>
+        <v>8.5</v>
       </c>
       <c r="AL24" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="AM24" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AN24" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AO24" t="n">
         <v>29</v>
       </c>
-      <c r="AP24" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>1.93</v>
-      </c>
+      <c r="AP24" t="inlineStr"/>
+      <c r="AQ24" t="inlineStr"/>
+      <c r="AR24" t="inlineStr"/>
+      <c r="AS24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>b5oRx1m1</t>
+          <t>WIqZzuID</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3996,7 +3992,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>17:45</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -4006,128 +4002,128 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Moreirense</t>
+          <t>Rio Ave</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>FC Porto</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="H25" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="I25" t="n">
-        <v>1.85</v>
+        <v>1.42</v>
       </c>
       <c r="J25" t="n">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="K25" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="L25" t="n">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="M25" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N25" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O25" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R25" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U25" t="n">
         <v>1.33</v>
       </c>
-      <c r="P25" t="n">
+      <c r="V25" t="n">
         <v>3.25</v>
       </c>
-      <c r="Q25" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.25</v>
-      </c>
       <c r="W25" t="n">
-        <v>1.44</v>
+        <v>1.95</v>
       </c>
       <c r="X25" t="n">
-        <v>2.63</v>
+        <v>1.8</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.95</v>
+        <v>17</v>
       </c>
       <c r="Z25" t="n">
-        <v>1.8</v>
+        <v>34</v>
       </c>
       <c r="AA25" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AB25" t="n">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="AC25" t="n">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="AD25" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AE25" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="AF25" t="n">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="AG25" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="AH25" t="n">
-        <v>6.5</v>
+        <v>51</v>
       </c>
       <c r="AI25" t="n">
-        <v>17</v>
+        <v>351</v>
       </c>
       <c r="AJ25" t="n">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="AK25" t="n">
-        <v>301</v>
+        <v>7</v>
       </c>
       <c r="AL25" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="AM25" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AN25" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="AO25" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>29</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="AP25" t="inlineStr"/>
+      <c r="AQ25" t="inlineStr"/>
       <c r="AR25" t="inlineStr"/>
       <c r="AS25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>WIqZzuID</t>
+          <t>GYeQFMnB</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -4137,138 +4133,138 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>17:45</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Rio Ave</t>
+          <t>Radnicki 1923</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>FC Porto</t>
+          <t>OFK Beograd</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>7</v>
+        <v>1.85</v>
       </c>
       <c r="H26" t="n">
-        <v>4.5</v>
+        <v>3.55</v>
       </c>
       <c r="I26" t="n">
-        <v>1.42</v>
+        <v>3.85</v>
       </c>
       <c r="J26" t="n">
-        <v>6.5</v>
+        <v>2.42</v>
       </c>
       <c r="K26" t="n">
-        <v>2.38</v>
+        <v>2.15</v>
       </c>
       <c r="L26" t="n">
-        <v>1.95</v>
+        <v>4.3</v>
       </c>
       <c r="M26" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N26" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="V26" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W26" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="X26" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>400</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL26" t="n">
         <v>13</v>
       </c>
-      <c r="O26" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P26" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R26" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="W26" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X26" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>81</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>51</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>51</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>351</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>7</v>
-      </c>
       <c r="AM26" t="n">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="AN26" t="n">
-        <v>8.5</v>
+        <v>35</v>
       </c>
       <c r="AO26" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>12</v>
-      </c>
-      <c r="AQ26" t="n">
-        <v>26</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="AP26" t="inlineStr"/>
+      <c r="AQ26" t="inlineStr"/>
       <c r="AR26" t="inlineStr"/>
       <c r="AS26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>GYeQFMnB</t>
+          <t>vsY7xgCM</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4278,138 +4274,138 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Radnicki 1923</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>OFK Beograd</t>
+          <t>Racing Club Ferrol</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.85</v>
+        <v>1.42</v>
       </c>
       <c r="H27" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="I27" t="n">
-        <v>3.95</v>
+        <v>8</v>
       </c>
       <c r="J27" t="n">
-        <v>2.42</v>
+        <v>2</v>
       </c>
       <c r="K27" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="L27" t="n">
-        <v>4.35</v>
+        <v>7</v>
       </c>
       <c r="M27" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N27" t="n">
-        <v>7.7</v>
+        <v>10</v>
       </c>
       <c r="O27" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="P27" t="n">
         <v>3.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.78</v>
+        <v>1.95</v>
       </c>
       <c r="R27" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr"/>
+        <v>1.9</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.33</v>
+      </c>
       <c r="U27" t="n">
-        <v>2.82</v>
+        <v>1.4</v>
       </c>
       <c r="V27" t="n">
-        <v>1.38</v>
+        <v>2.75</v>
       </c>
       <c r="W27" t="n">
-        <v>1.39</v>
+        <v>2.1</v>
       </c>
       <c r="X27" t="n">
-        <v>2.8</v>
+        <v>1.67</v>
       </c>
       <c r="Y27" t="n">
-        <v>1.7</v>
+        <v>6.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>2.05</v>
+        <v>6.5</v>
       </c>
       <c r="AA27" t="n">
-        <v>7.9</v>
+        <v>9</v>
       </c>
       <c r="AB27" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AC27" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF27" t="n">
         <v>8</v>
       </c>
-      <c r="AD27" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF27" t="n">
+      <c r="AG27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>67</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL27" t="n">
         <v>23</v>
       </c>
-      <c r="AG27" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>400</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>12</v>
-      </c>
       <c r="AM27" t="n">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="AN27" t="n">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="AO27" t="n">
-        <v>60</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>35</v>
-      </c>
-      <c r="AQ27" t="n">
-        <v>37</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="AP27" t="inlineStr"/>
+      <c r="AQ27" t="inlineStr"/>
       <c r="AR27" t="inlineStr"/>
       <c r="AS27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>vsY7xgCM</t>
+          <t>zkc3EvJs</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4419,138 +4415,138 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>TURKEY - SUPER LIG</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>Gaziantep</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Racing Club Ferrol</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.42</v>
+        <v>6.5</v>
       </c>
       <c r="H28" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I28" t="n">
-        <v>8</v>
+        <v>1.4</v>
       </c>
       <c r="J28" t="n">
-        <v>1.95</v>
+        <v>5.5</v>
       </c>
       <c r="K28" t="n">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="L28" t="n">
-        <v>7.5</v>
+        <v>1.83</v>
       </c>
       <c r="M28" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="N28" t="n">
+        <v>21</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P28" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R28" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="V28" t="n">
+        <v>4</v>
+      </c>
+      <c r="W28" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X28" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>67</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>101</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM28" t="n">
         <v>11</v>
       </c>
-      <c r="O28" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P28" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="V28" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="W28" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X28" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>67</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL28" t="n">
+      <c r="AN28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AO28" t="n">
         <v>19</v>
       </c>
-      <c r="AM28" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>23</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>101</v>
-      </c>
-      <c r="AP28" t="n">
-        <v>51</v>
-      </c>
-      <c r="AQ28" t="n">
-        <v>51</v>
-      </c>
+      <c r="AP28" t="inlineStr"/>
+      <c r="AQ28" t="inlineStr"/>
       <c r="AR28" t="inlineStr"/>
       <c r="AS28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>zkc3EvJs</t>
+          <t>vZJjAblm</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4560,270 +4556,129 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>VENEZUELA - LIGA FUTVE</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Gaziantep</t>
+          <t>Caracas</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Metropolitanos</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>7</v>
+        <v>2.15</v>
       </c>
       <c r="H29" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="I29" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="L29" t="n">
+        <v>4</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="n">
         <v>1.4</v>
       </c>
-      <c r="J29" t="n">
-        <v>6</v>
-      </c>
-      <c r="K29" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="L29" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N29" t="n">
+      <c r="P29" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="V29" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="X29" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB29" t="n">
         <v>21</v>
       </c>
-      <c r="O29" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P29" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R29" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr"/>
-      <c r="U29" t="n">
-        <v>2</v>
-      </c>
-      <c r="V29" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W29" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="X29" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>41</v>
-      </c>
       <c r="AC29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD29" t="n">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="AE29" t="n">
-        <v>41</v>
+        <v>7.2</v>
       </c>
       <c r="AF29" t="n">
-        <v>41</v>
+        <v>5.9</v>
       </c>
       <c r="AG29" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AH29" t="n">
-        <v>9.5</v>
+        <v>90</v>
       </c>
       <c r="AI29" t="n">
-        <v>15</v>
+        <v>900</v>
       </c>
       <c r="AJ29" t="n">
-        <v>41</v>
+        <v>8.5</v>
       </c>
       <c r="AK29" t="n">
-        <v>126</v>
+        <v>17.5</v>
       </c>
       <c r="AL29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM29" t="n">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="AN29" t="n">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="AO29" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP29" t="n">
-        <v>11</v>
-      </c>
-      <c r="AQ29" t="n">
-        <v>19</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="AP29" t="inlineStr"/>
+      <c r="AQ29" t="inlineStr"/>
       <c r="AR29" t="inlineStr"/>
       <c r="AS29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>vZJjAblm</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>03/02/2025</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>20:00</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>VENEZUELA - LIGA FUTVE</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Caracas</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Metropolitanos</t>
-        </is>
-      </c>
-      <c r="G30" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="H30" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J30" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K30" t="n">
-        <v>2</v>
-      </c>
-      <c r="L30" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="P30" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S30" t="inlineStr"/>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="V30" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="W30" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="X30" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>32</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>90</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>900</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>9</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>20</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>65</v>
-      </c>
-      <c r="AP30" t="n">
-        <v>45</v>
-      </c>
-      <c r="AQ30" t="n">
-        <v>55</v>
-      </c>
-      <c r="AR30" t="inlineStr"/>
-      <c r="AS30" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-03.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-03.xlsx
@@ -837,22 +837,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="H3" t="n">
         <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K3" t="n">
         <v>2.2</v>
       </c>
       <c r="L3" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
@@ -861,16 +861,16 @@
         <v>11</v>
       </c>
       <c r="O3" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P3" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="R3" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
@@ -887,10 +887,10 @@
         <v>2.75</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="Z3" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AA3" t="n">
         <v>12</v>
@@ -905,7 +905,7 @@
         <v>41</v>
       </c>
       <c r="AE3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF3" t="n">
         <v>34</v>
@@ -929,7 +929,7 @@
         <v>8</v>
       </c>
       <c r="AM3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AN3" t="n">
         <v>8.5</v>
@@ -978,22 +978,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="H4" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I4" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J4" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K4" t="n">
         <v>2.38</v>
       </c>
       <c r="L4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M4" t="n">
         <v>1.04</v>
@@ -1058,7 +1058,7 @@
         <v>8.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ4" t="n">
         <v>51</v>
@@ -1076,7 +1076,7 @@
         <v>17</v>
       </c>
       <c r="AO4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AP4" t="n">
         <v>41</v>
@@ -1864,16 +1864,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="H10" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J10" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K10" t="n">
         <v>1.95</v>
@@ -1948,7 +1948,7 @@
         <v>6</v>
       </c>
       <c r="AI10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ10" t="n">
         <v>81</v>
@@ -1963,7 +1963,7 @@
         <v>23</v>
       </c>
       <c r="AN10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO10" t="n">
         <v>51</v>
@@ -2031,28 +2031,28 @@
         <v>4.33</v>
       </c>
       <c r="M11" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O11" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P11" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R11" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S11" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="T11" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="U11" t="n">
         <v>5</v>
@@ -2124,10 +2124,10 @@
         <v>41</v>
       </c>
       <c r="AR11" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="12">
@@ -2162,13 +2162,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="H12" t="n">
         <v>7.7</v>
       </c>
       <c r="I12" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J12" t="n">
         <v>1.42</v>
@@ -2177,7 +2177,7 @@
         <v>2.95</v>
       </c>
       <c r="L12" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="M12" t="n">
         <v>1.03</v>
@@ -2189,21 +2189,21 @@
         <v>1.14</v>
       </c>
       <c r="P12" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="R12" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="V12" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="W12" t="n">
         <v>1.25</v>
@@ -2212,22 +2212,22 @@
         <v>3.7</v>
       </c>
       <c r="Y12" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="Z12" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AA12" t="n">
         <v>6.7</v>
       </c>
       <c r="AB12" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AC12" t="n">
         <v>13</v>
       </c>
       <c r="AD12" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AE12" t="n">
         <v>13</v>
@@ -2239,31 +2239,31 @@
         <v>10.75</v>
       </c>
       <c r="AH12" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AI12" t="n">
         <v>55</v>
       </c>
       <c r="AJ12" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AK12" t="n">
         <v>700</v>
       </c>
       <c r="AL12" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AM12" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AN12" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
       </c>
       <c r="AP12" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="AQ12" t="n">
         <v>400</v>
@@ -2303,7 +2303,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="H13" t="n">
         <v>3.75</v>
@@ -2312,13 +2312,13 @@
         <v>1.7</v>
       </c>
       <c r="J13" t="n">
-        <v>4.8</v>
+        <v>4.85</v>
       </c>
       <c r="K13" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="L13" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="M13" t="n">
         <v>1.06</v>
@@ -2327,21 +2327,21 @@
         <v>8</v>
       </c>
       <c r="O13" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P13" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="Q13" t="n">
         <v>1.85</v>
       </c>
       <c r="R13" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="V13" t="n">
         <v>1.35</v>
@@ -2356,13 +2356,13 @@
         <v>1.82</v>
       </c>
       <c r="Z13" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="AA13" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AC13" t="n">
         <v>16</v>
@@ -2380,13 +2380,13 @@
         <v>8</v>
       </c>
       <c r="AH13" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AI13" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AJ13" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AK13" t="n">
         <v>700</v>
@@ -2407,7 +2407,7 @@
         <v>14.5</v>
       </c>
       <c r="AQ13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AR13" t="inlineStr"/>
       <c r="AS13" t="inlineStr"/>
@@ -2447,16 +2447,16 @@
         <v>4.1</v>
       </c>
       <c r="H14" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I14" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="J14" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="K14" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L14" t="n">
         <v>2.3</v>
@@ -2468,36 +2468,36 @@
         <v>13</v>
       </c>
       <c r="O14" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P14" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R14" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V14" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="W14" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X14" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Z14" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AA14" t="n">
         <v>13</v>
@@ -2506,7 +2506,7 @@
         <v>23</v>
       </c>
       <c r="AC14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD14" t="n">
         <v>51</v>
@@ -2515,25 +2515,25 @@
         <v>34</v>
       </c>
       <c r="AF14" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH14" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ14" t="n">
         <v>51</v>
       </c>
       <c r="AK14" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AL14" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AM14" t="n">
         <v>8.5</v>
@@ -2603,10 +2603,10 @@
         <v>3.5</v>
       </c>
       <c r="M15" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O15" t="n">
         <v>1.29</v>
@@ -2615,18 +2615,18 @@
         <v>3.75</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="R15" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="V15" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="W15" t="n">
         <v>1.4</v>
@@ -2726,10 +2726,10 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="H16" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I16" t="n">
         <v>5.5</v>
@@ -2744,25 +2744,25 @@
         <v>6.5</v>
       </c>
       <c r="M16" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O16" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P16" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R16" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S16" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="T16" t="n">
         <v>1.27</v>
@@ -2837,10 +2837,10 @@
         <v>51</v>
       </c>
       <c r="AR16" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="17">
@@ -2875,28 +2875,28 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="H17" t="n">
         <v>3.4</v>
       </c>
       <c r="I17" t="n">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="J17" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K17" t="n">
         <v>2.38</v>
       </c>
       <c r="L17" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M17" t="n">
         <v>1.03</v>
       </c>
       <c r="N17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O17" t="n">
         <v>1.17</v>
@@ -2911,10 +2911,10 @@
         <v>2.35</v>
       </c>
       <c r="S17" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T17" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U17" t="n">
         <v>2.38</v>
@@ -2941,13 +2941,13 @@
         <v>15</v>
       </c>
       <c r="AC17" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD17" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF17" t="n">
         <v>21</v>
@@ -2956,7 +2956,7 @@
         <v>17</v>
       </c>
       <c r="AH17" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI17" t="n">
         <v>11</v>
@@ -2968,22 +2968,22 @@
         <v>101</v>
       </c>
       <c r="AL17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AN17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO17" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ17" t="n">
         <v>21</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>23</v>
       </c>
       <c r="AR17" t="inlineStr"/>
       <c r="AS17" t="inlineStr"/>
@@ -3020,22 +3020,22 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.3</v>
+        <v>2.37</v>
       </c>
       <c r="H18" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I18" t="n">
-        <v>2.85</v>
+        <v>2.72</v>
       </c>
       <c r="J18" t="n">
-        <v>2.82</v>
+        <v>2.92</v>
       </c>
       <c r="K18" t="n">
         <v>2.15</v>
       </c>
       <c r="L18" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
@@ -3065,7 +3065,7 @@
         <v>1.52</v>
       </c>
       <c r="Z18" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="AA18" t="n">
         <v>9.75</v>
@@ -3077,13 +3077,13 @@
         <v>9</v>
       </c>
       <c r="AD18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AE18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG18" t="n">
         <v>12.5</v>
@@ -3107,16 +3107,16 @@
         <v>16.5</v>
       </c>
       <c r="AN18" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AO18" t="n">
         <v>35</v>
       </c>
       <c r="AP18" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AQ18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR18" t="inlineStr"/>
       <c r="AS18" t="inlineStr"/>
@@ -3156,19 +3156,19 @@
         <v>3.7</v>
       </c>
       <c r="H19" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I19" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="J19" t="n">
         <v>4.05</v>
       </c>
       <c r="K19" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="L19" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
@@ -3182,15 +3182,15 @@
         <v>1.7</v>
       </c>
       <c r="R19" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="V19" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W19" t="n">
         <v>1.4</v>
@@ -3199,16 +3199,16 @@
         <v>2.55</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="Z19" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AA19" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AB19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AC19" t="n">
         <v>12.5</v>
@@ -3223,37 +3223,37 @@
         <v>35</v>
       </c>
       <c r="AG19" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="AI19" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ19" t="n">
         <v>55</v>
       </c>
       <c r="AK19" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AL19" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="AM19" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AN19" t="n">
         <v>8.25</v>
       </c>
       <c r="AO19" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AP19" t="n">
         <v>14</v>
       </c>
       <c r="AQ19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR19" t="inlineStr"/>
       <c r="AS19" t="inlineStr"/>
@@ -3447,10 +3447,10 @@
         <v>2.75</v>
       </c>
       <c r="K21" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L21" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M21" t="n">
         <v>1.03</v>
@@ -3459,28 +3459,28 @@
         <v>15</v>
       </c>
       <c r="O21" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P21" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="R21" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="S21" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="T21" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="U21" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V21" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W21" t="n">
         <v>1.3</v>
@@ -3489,16 +3489,16 @@
         <v>3.4</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Z21" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AA21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC21" t="n">
         <v>9</v>
@@ -3513,7 +3513,7 @@
         <v>21</v>
       </c>
       <c r="AG21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH21" t="n">
         <v>7.5</v>
@@ -3522,16 +3522,16 @@
         <v>12</v>
       </c>
       <c r="AJ21" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK21" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AL21" t="n">
         <v>13</v>
       </c>
       <c r="AM21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN21" t="n">
         <v>11</v>
@@ -3543,7 +3543,7 @@
         <v>21</v>
       </c>
       <c r="AQ21" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR21" t="inlineStr"/>
       <c r="AS21" t="inlineStr"/>
@@ -3725,10 +3725,10 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H23" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I23" t="n">
         <v>2.2</v>
@@ -3737,52 +3737,52 @@
         <v>3.4</v>
       </c>
       <c r="K23" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L23" t="n">
         <v>2.75</v>
       </c>
       <c r="M23" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N23" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="O23" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P23" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q23" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U23" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X23" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y23" t="n">
         <v>1.5</v>
       </c>
-      <c r="R23" t="n">
+      <c r="Z23" t="n">
         <v>2.5</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="T23" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="U23" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W23" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="X23" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>2.63</v>
       </c>
       <c r="AA23" t="n">
         <v>15</v>
@@ -3803,22 +3803,22 @@
         <v>23</v>
       </c>
       <c r="AG23" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH23" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI23" t="n">
         <v>11</v>
       </c>
       <c r="AJ23" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AK23" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AL23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM23" t="n">
         <v>13</v>
@@ -3833,7 +3833,7 @@
         <v>15</v>
       </c>
       <c r="AQ23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AR23" t="inlineStr"/>
       <c r="AS23" t="inlineStr"/>
@@ -3888,10 +3888,10 @@
         <v>3.6</v>
       </c>
       <c r="M24" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N24" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O24" t="n">
         <v>1.5</v>
@@ -3908,10 +3908,10 @@
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="V24" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="W24" t="n">
         <v>1.57</v>
@@ -3977,10 +3977,10 @@
         <v>41</v>
       </c>
       <c r="AR24" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="25">
@@ -4015,22 +4015,22 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H25" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I25" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="J25" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="K25" t="n">
         <v>2.1</v>
       </c>
       <c r="L25" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="M25" t="n">
         <v>1.06</v>
@@ -4045,10 +4045,10 @@
         <v>3.25</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R25" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
@@ -4071,13 +4071,13 @@
         <v>1.8</v>
       </c>
       <c r="AA25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB25" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC25" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD25" t="n">
         <v>41</v>
@@ -4089,7 +4089,7 @@
         <v>41</v>
       </c>
       <c r="AG25" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH25" t="n">
         <v>6.5</v>
@@ -4101,7 +4101,7 @@
         <v>51</v>
       </c>
       <c r="AK25" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AL25" t="n">
         <v>6.5</v>
@@ -4110,13 +4110,13 @@
         <v>8.5</v>
       </c>
       <c r="AN25" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AO25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ25" t="n">
         <v>29</v>
@@ -4156,16 +4156,16 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="H26" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I26" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="J26" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="K26" t="n">
         <v>2.4</v>
@@ -4174,10 +4174,10 @@
         <v>1.91</v>
       </c>
       <c r="M26" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O26" t="n">
         <v>1.22</v>
@@ -4186,10 +4186,10 @@
         <v>4</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R26" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
@@ -4206,10 +4206,10 @@
         <v>3.25</v>
       </c>
       <c r="Y26" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="Z26" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AA26" t="n">
         <v>17</v>
@@ -4230,37 +4230,37 @@
         <v>51</v>
       </c>
       <c r="AG26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH26" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI26" t="n">
         <v>21</v>
       </c>
       <c r="AJ26" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK26" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AL26" t="n">
         <v>7</v>
       </c>
       <c r="AM26" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AN26" t="n">
         <v>8.5</v>
       </c>
       <c r="AO26" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP26" t="n">
         <v>12</v>
       </c>
       <c r="AQ26" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR26" t="inlineStr"/>
       <c r="AS26" t="inlineStr"/>
@@ -4438,28 +4438,28 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.42</v>
+        <v>1.53</v>
       </c>
       <c r="H28" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="I28" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="J28" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="K28" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L28" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M28" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O28" t="n">
         <v>1.29</v>
@@ -4468,18 +4468,18 @@
         <v>3.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R28" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V28" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W28" t="n">
         <v>1.4</v>
@@ -4488,22 +4488,22 @@
         <v>2.75</v>
       </c>
       <c r="Y28" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Z28" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="AA28" t="n">
         <v>6.5</v>
       </c>
       <c r="AB28" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AC28" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE28" t="n">
         <v>13</v>
@@ -4515,28 +4515,28 @@
         <v>10</v>
       </c>
       <c r="AH28" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI28" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ28" t="n">
         <v>67</v>
       </c>
       <c r="AK28" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AL28" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM28" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN28" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AO28" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AP28" t="n">
         <v>51</v>
@@ -4579,22 +4579,22 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>6.25</v>
+        <v>7</v>
       </c>
       <c r="H29" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I29" t="n">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="J29" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="K29" t="n">
         <v>2.75</v>
       </c>
       <c r="L29" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="M29" t="n">
         <v>1.02</v>
@@ -4603,24 +4603,24 @@
         <v>21</v>
       </c>
       <c r="O29" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="P29" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="R29" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V29" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W29" t="n">
         <v>1.22</v>
@@ -4635,7 +4635,7 @@
         <v>2.38</v>
       </c>
       <c r="AA29" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB29" t="n">
         <v>41</v>
@@ -4644,7 +4644,7 @@
         <v>21</v>
       </c>
       <c r="AD29" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AE29" t="n">
         <v>41</v>
@@ -4656,25 +4656,25 @@
         <v>21</v>
       </c>
       <c r="AH29" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ29" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK29" t="n">
         <v>101</v>
       </c>
       <c r="AL29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM29" t="n">
         <v>9.5</v>
       </c>
       <c r="AN29" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AO29" t="n">
         <v>11</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-03.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-03.xlsx
@@ -755,7 +755,7 @@
         <v>12</v>
       </c>
       <c r="AB2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AC2" t="n">
         <v>9.5</v>
@@ -1119,16 +1119,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H5" t="n">
         <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="J5" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
         <v>1.95</v>
@@ -1167,10 +1167,10 @@
         <v>1.18</v>
       </c>
       <c r="W5" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="X5" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Y5" t="n">
         <v>2.05</v>
@@ -1182,10 +1182,10 @@
         <v>6</v>
       </c>
       <c r="AB5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC5" t="n">
         <v>9.5</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>10</v>
       </c>
       <c r="AD5" t="n">
         <v>21</v>
@@ -1194,13 +1194,13 @@
         <v>21</v>
       </c>
       <c r="AF5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG5" t="n">
         <v>6.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AI5" t="n">
         <v>17</v>
@@ -1215,7 +1215,7 @@
         <v>8.5</v>
       </c>
       <c r="AM5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AN5" t="n">
         <v>13</v>
@@ -1292,10 +1292,10 @@
         <v>8</v>
       </c>
       <c r="O6" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P6" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q6" t="n">
         <v>2.25</v>
@@ -2444,19 +2444,19 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H14" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I14" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="J14" t="n">
         <v>5</v>
       </c>
       <c r="K14" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L14" t="n">
         <v>2.3</v>
@@ -2474,10 +2474,10 @@
         <v>3.75</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R14" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
@@ -2518,10 +2518,10 @@
         <v>41</v>
       </c>
       <c r="AG14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH14" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI14" t="n">
         <v>17</v>
@@ -2603,10 +2603,10 @@
         <v>3.5</v>
       </c>
       <c r="M15" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O15" t="n">
         <v>1.29</v>
@@ -2615,18 +2615,18 @@
         <v>3.75</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="R15" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="V15" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W15" t="n">
         <v>1.4</v>
@@ -2729,7 +2729,7 @@
         <v>1.67</v>
       </c>
       <c r="H16" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I16" t="n">
         <v>5.5</v>
@@ -2813,7 +2813,7 @@
         <v>23</v>
       </c>
       <c r="AJ16" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK16" t="n">
         <v>101</v>
@@ -2837,10 +2837,10 @@
         <v>51</v>
       </c>
       <c r="AR16" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -2875,22 +2875,22 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H17" t="n">
         <v>3.4</v>
       </c>
       <c r="I17" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="J17" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K17" t="n">
         <v>2.38</v>
       </c>
       <c r="L17" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M17" t="n">
         <v>1.03</v>
@@ -2911,10 +2911,10 @@
         <v>2.35</v>
       </c>
       <c r="S17" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="T17" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="U17" t="n">
         <v>2.38</v>
@@ -3020,91 +3020,91 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="H18" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="L18" t="n">
         <v>3.35</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="K18" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="L18" t="n">
-        <v>3.2</v>
       </c>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P18" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="R18" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="n">
-        <v>2.47</v>
+        <v>2.4</v>
       </c>
       <c r="V18" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="W18" t="inlineStr"/>
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="Z18" t="n">
-        <v>2.22</v>
+        <v>2.32</v>
       </c>
       <c r="AA18" t="n">
-        <v>9.75</v>
+        <v>10.75</v>
       </c>
       <c r="AB18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AC18" t="n">
         <v>9</v>
       </c>
       <c r="AD18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AE18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG18" t="n">
         <v>12.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AI18" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AJ18" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AK18" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AL18" t="n">
         <v>11.25</v>
       </c>
       <c r="AM18" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AN18" t="n">
         <v>10</v>
@@ -3113,7 +3113,7 @@
         <v>35</v>
       </c>
       <c r="AP18" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AQ18" t="n">
         <v>24</v>
@@ -3153,22 +3153,22 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="H19" t="n">
         <v>3.5</v>
       </c>
       <c r="I19" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="J19" t="n">
         <v>4.05</v>
       </c>
       <c r="K19" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="L19" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
@@ -3202,13 +3202,13 @@
         <v>1.62</v>
       </c>
       <c r="Z19" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="AA19" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AB19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AC19" t="n">
         <v>12.5</v>
@@ -3220,13 +3220,13 @@
         <v>32</v>
       </c>
       <c r="AF19" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AG19" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AH19" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AI19" t="n">
         <v>13</v>
@@ -3238,16 +3238,16 @@
         <v>350</v>
       </c>
       <c r="AL19" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AM19" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AN19" t="n">
         <v>8.25</v>
       </c>
       <c r="AO19" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AP19" t="n">
         <v>14</v>
@@ -3290,19 +3290,19 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H20" t="n">
         <v>3.8</v>
       </c>
       <c r="I20" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J20" t="n">
         <v>2.25</v>
       </c>
       <c r="K20" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L20" t="n">
         <v>4.5</v>
@@ -3314,28 +3314,28 @@
         <v>15</v>
       </c>
       <c r="O20" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P20" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R20" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="S20" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="T20" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="U20" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V20" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W20" t="n">
         <v>1.3</v>
@@ -3350,7 +3350,7 @@
         <v>2.2</v>
       </c>
       <c r="AA20" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB20" t="n">
         <v>9.5</v>
@@ -3359,7 +3359,7 @@
         <v>8.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE20" t="n">
         <v>13</v>
@@ -3380,7 +3380,7 @@
         <v>41</v>
       </c>
       <c r="AK20" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AL20" t="n">
         <v>17</v>
@@ -3604,28 +3604,28 @@
         <v>15</v>
       </c>
       <c r="O22" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P22" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R22" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S22" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="T22" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="U22" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V22" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W22" t="n">
         <v>1.29</v>
@@ -3870,66 +3870,66 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I24" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="J24" t="n">
         <v>3.6</v>
       </c>
       <c r="K24" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L24" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M24" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N24" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O24" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="P24" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="R24" t="n">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="V24" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="W24" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="X24" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Y24" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Z24" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AA24" t="n">
         <v>6.5</v>
       </c>
       <c r="AB24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC24" t="n">
         <v>11</v>
@@ -3938,22 +3938,22 @@
         <v>29</v>
       </c>
       <c r="AE24" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF24" t="n">
         <v>41</v>
       </c>
       <c r="AG24" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AH24" t="n">
         <v>6</v>
       </c>
       <c r="AI24" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ24" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AK24" t="n">
         <v>501</v>
@@ -3965,22 +3965,22 @@
         <v>12</v>
       </c>
       <c r="AN24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO24" t="n">
         <v>29</v>
       </c>
       <c r="AP24" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ24" t="n">
         <v>41</v>
       </c>
       <c r="AR24" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="25">
@@ -4015,22 +4015,22 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="H25" t="n">
         <v>3.4</v>
       </c>
       <c r="I25" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="J25" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="K25" t="n">
         <v>2.1</v>
       </c>
       <c r="L25" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="M25" t="n">
         <v>1.06</v>
@@ -4045,10 +4045,10 @@
         <v>3.25</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R25" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
@@ -4065,10 +4065,10 @@
         <v>2.63</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="Z25" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AA25" t="n">
         <v>10</v>
@@ -4089,25 +4089,25 @@
         <v>41</v>
       </c>
       <c r="AG25" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH25" t="n">
         <v>6.5</v>
       </c>
       <c r="AI25" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ25" t="n">
         <v>51</v>
       </c>
       <c r="AK25" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AL25" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AM25" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AN25" t="n">
         <v>9</v>
@@ -4156,13 +4156,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="H26" t="n">
         <v>4.75</v>
       </c>
       <c r="I26" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="J26" t="n">
         <v>7.5</v>
@@ -4171,13 +4171,13 @@
         <v>2.4</v>
       </c>
       <c r="L26" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="M26" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O26" t="n">
         <v>1.22</v>
@@ -4206,22 +4206,22 @@
         <v>3.25</v>
       </c>
       <c r="Y26" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="Z26" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AA26" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB26" t="n">
         <v>41</v>
       </c>
       <c r="AC26" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD26" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AE26" t="n">
         <v>51</v>
@@ -4230,7 +4230,7 @@
         <v>51</v>
       </c>
       <c r="AG26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH26" t="n">
         <v>9.5</v>
@@ -4254,7 +4254,7 @@
         <v>8.5</v>
       </c>
       <c r="AO26" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP26" t="n">
         <v>12</v>
@@ -4303,16 +4303,16 @@
         <v>3.55</v>
       </c>
       <c r="I27" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="J27" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="K27" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="L27" t="n">
-        <v>4.25</v>
+        <v>4.15</v>
       </c>
       <c r="M27" t="n">
         <v>1.05</v>
@@ -4327,10 +4327,10 @@
         <v>3.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="R27" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
@@ -4344,7 +4344,7 @@
         <v>1.38</v>
       </c>
       <c r="X27" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="Y27" t="n">
         <v>1.7</v>
@@ -4353,22 +4353,22 @@
         <v>2.05</v>
       </c>
       <c r="AA27" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="AB27" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AC27" t="n">
         <v>8.25</v>
       </c>
       <c r="AD27" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AE27" t="n">
         <v>14</v>
       </c>
       <c r="AF27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG27" t="n">
         <v>7.8</v>
@@ -4386,22 +4386,22 @@
         <v>400</v>
       </c>
       <c r="AL27" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AM27" t="n">
         <v>22</v>
       </c>
       <c r="AN27" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AO27" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AP27" t="n">
+        <v>32</v>
+      </c>
+      <c r="AQ27" t="n">
         <v>35</v>
-      </c>
-      <c r="AQ27" t="n">
-        <v>37</v>
       </c>
       <c r="AR27" t="inlineStr"/>
       <c r="AS27" t="inlineStr"/>
@@ -4456,10 +4456,10 @@
         <v>6.5</v>
       </c>
       <c r="M28" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O28" t="n">
         <v>1.29</v>
@@ -4579,22 +4579,22 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H29" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="I29" t="n">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="J29" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="K29" t="n">
         <v>2.75</v>
       </c>
       <c r="L29" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="M29" t="n">
         <v>1.02</v>
@@ -4603,24 +4603,24 @@
         <v>21</v>
       </c>
       <c r="O29" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="P29" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="R29" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V29" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W29" t="n">
         <v>1.22</v>
@@ -4635,49 +4635,49 @@
         <v>2.38</v>
       </c>
       <c r="AA29" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AB29" t="n">
         <v>41</v>
       </c>
       <c r="AC29" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD29" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AE29" t="n">
         <v>41</v>
       </c>
       <c r="AF29" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG29" t="n">
         <v>21</v>
       </c>
       <c r="AH29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ29" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK29" t="n">
         <v>101</v>
       </c>
       <c r="AL29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM29" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AN29" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AO29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP29" t="n">
         <v>11</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-03.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-03.xlsx
@@ -695,7 +695,7 @@
         <v>1.33</v>
       </c>
       <c r="H2" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="I2" t="n">
         <v>8.5</v>
@@ -752,13 +752,13 @@
         <v>2.2</v>
       </c>
       <c r="AA2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB2" t="n">
         <v>10</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD2" t="n">
         <v>11</v>
@@ -852,7 +852,7 @@
         <v>2.2</v>
       </c>
       <c r="L3" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
@@ -861,16 +861,16 @@
         <v>11</v>
       </c>
       <c r="O3" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P3" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="R3" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
@@ -881,19 +881,19 @@
         <v>1.36</v>
       </c>
       <c r="W3" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X3" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="Z3" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AA3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB3" t="n">
         <v>21</v>
@@ -941,7 +941,7 @@
         <v>15</v>
       </c>
       <c r="AQ3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR3" t="inlineStr"/>
       <c r="AS3" t="inlineStr"/>
@@ -1119,22 +1119,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H5" t="n">
         <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K5" t="n">
         <v>1.95</v>
       </c>
       <c r="L5" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M5" t="n">
         <v>1.1</v>
@@ -1188,7 +1188,7 @@
         <v>9.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE5" t="n">
         <v>21</v>
@@ -1745,10 +1745,10 @@
         <v>2.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R9" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S9" t="n">
         <v>4.2</v>
@@ -1757,10 +1757,10 @@
         <v>1.23</v>
       </c>
       <c r="U9" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="V9" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="W9" t="n">
         <v>1.57</v>
@@ -1826,10 +1826,10 @@
         <v>51</v>
       </c>
       <c r="AR9" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="10">
@@ -2165,19 +2165,19 @@
         <v>1.11</v>
       </c>
       <c r="H12" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="I12" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J12" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="K12" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="L12" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="M12" t="n">
         <v>1.03</v>
@@ -2192,10 +2192,10 @@
         <v>5.3</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="R12" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
@@ -2206,22 +2206,22 @@
         <v>1.72</v>
       </c>
       <c r="W12" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="X12" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="Y12" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="Z12" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="AA12" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AB12" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AC12" t="n">
         <v>13</v>
@@ -2245,25 +2245,25 @@
         <v>55</v>
       </c>
       <c r="AJ12" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AK12" t="n">
         <v>700</v>
       </c>
       <c r="AL12" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AM12" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AN12" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
       </c>
       <c r="AP12" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AQ12" t="n">
         <v>400</v>
@@ -2468,10 +2468,10 @@
         <v>13</v>
       </c>
       <c r="O14" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P14" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q14" t="n">
         <v>1.75</v>
@@ -2482,10 +2482,10 @@
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V14" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="W14" t="n">
         <v>1.36</v>
@@ -2585,16 +2585,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="H15" t="n">
         <v>3.3</v>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K15" t="n">
         <v>2.1</v>
@@ -2609,16 +2609,16 @@
         <v>10</v>
       </c>
       <c r="O15" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P15" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R15" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
@@ -2635,10 +2635,10 @@
         <v>2.75</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="Z15" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AA15" t="n">
         <v>8.5</v>
@@ -2656,13 +2656,13 @@
         <v>19</v>
       </c>
       <c r="AF15" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG15" t="n">
         <v>10</v>
       </c>
       <c r="AH15" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI15" t="n">
         <v>13</v>
@@ -2674,7 +2674,7 @@
         <v>201</v>
       </c>
       <c r="AL15" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM15" t="n">
         <v>15</v>
@@ -2726,7 +2726,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H16" t="n">
         <v>3.6</v>
@@ -2735,7 +2735,7 @@
         <v>5.5</v>
       </c>
       <c r="J16" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K16" t="n">
         <v>2</v>
@@ -2756,10 +2756,10 @@
         <v>2.63</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R16" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S16" t="n">
         <v>3.8</v>
@@ -2768,10 +2768,10 @@
         <v>1.27</v>
       </c>
       <c r="U16" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="V16" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W16" t="n">
         <v>1.53</v>
@@ -2804,16 +2804,16 @@
         <v>41</v>
       </c>
       <c r="AG16" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI16" t="n">
         <v>23</v>
       </c>
       <c r="AJ16" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK16" t="n">
         <v>101</v>
@@ -2837,10 +2837,10 @@
         <v>51</v>
       </c>
       <c r="AR16" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AS16" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="17">
@@ -2875,22 +2875,22 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="H17" t="n">
         <v>3.4</v>
       </c>
       <c r="I17" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="J17" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K17" t="n">
         <v>2.38</v>
       </c>
       <c r="L17" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M17" t="n">
         <v>1.03</v>
@@ -2935,28 +2935,28 @@
         <v>2.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD17" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE17" t="n">
         <v>19</v>
       </c>
       <c r="AF17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG17" t="n">
         <v>17</v>
       </c>
       <c r="AH17" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI17" t="n">
         <v>11</v>
@@ -2977,10 +2977,10 @@
         <v>10</v>
       </c>
       <c r="AO17" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ17" t="n">
         <v>21</v>
@@ -3153,44 +3153,44 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="H19" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I19" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="J19" t="n">
-        <v>4.05</v>
+        <v>4.15</v>
       </c>
       <c r="K19" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="L19" t="n">
-        <v>2.42</v>
+        <v>2.32</v>
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="P19" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="R19" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="n">
-        <v>2.6</v>
+        <v>2.47</v>
       </c>
       <c r="V19" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="W19" t="n">
         <v>1.4</v>
@@ -3199,46 +3199,46 @@
         <v>2.55</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="Z19" t="n">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="AA19" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AB19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC19" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AD19" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AE19" t="n">
         <v>32</v>
       </c>
       <c r="AF19" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AG19" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AI19" t="n">
         <v>13</v>
       </c>
       <c r="AJ19" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AK19" t="n">
         <v>350</v>
       </c>
       <c r="AL19" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AM19" t="n">
         <v>9.5</v>
@@ -3247,13 +3247,13 @@
         <v>8.25</v>
       </c>
       <c r="AO19" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AP19" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ19" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR19" t="inlineStr"/>
       <c r="AS19" t="inlineStr"/>
@@ -3290,16 +3290,16 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="H20" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I20" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J20" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K20" t="n">
         <v>2.4</v>
@@ -3311,7 +3311,7 @@
         <v>1.03</v>
       </c>
       <c r="N20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O20" t="n">
         <v>1.17</v>
@@ -3326,10 +3326,10 @@
         <v>2.35</v>
       </c>
       <c r="S20" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="T20" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="U20" t="n">
         <v>2.38</v>
@@ -3338,16 +3338,16 @@
         <v>1.53</v>
       </c>
       <c r="W20" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X20" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Z20" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AA20" t="n">
         <v>9.5</v>
@@ -3359,19 +3359,19 @@
         <v>8.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF20" t="n">
         <v>21</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI20" t="n">
         <v>13</v>
@@ -3386,7 +3386,7 @@
         <v>17</v>
       </c>
       <c r="AM20" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN20" t="n">
         <v>15</v>
@@ -3435,10 +3435,10 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H21" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I21" t="n">
         <v>3</v>
@@ -3450,7 +3450,7 @@
         <v>2.3</v>
       </c>
       <c r="L21" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M21" t="n">
         <v>1.03</v>
@@ -3459,16 +3459,16 @@
         <v>15</v>
       </c>
       <c r="O21" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P21" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R21" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S21" t="n">
         <v>2.03</v>
@@ -3477,10 +3477,10 @@
         <v>1.83</v>
       </c>
       <c r="U21" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V21" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W21" t="n">
         <v>1.3</v>
@@ -3498,7 +3498,7 @@
         <v>10</v>
       </c>
       <c r="AB21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC21" t="n">
         <v>9</v>
@@ -3580,19 +3580,19 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H22" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I22" t="n">
         <v>3.4</v>
       </c>
       <c r="J22" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K22" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L22" t="n">
         <v>3.75</v>
@@ -3601,7 +3601,7 @@
         <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O22" t="n">
         <v>1.17</v>
@@ -3610,22 +3610,22 @@
         <v>5</v>
       </c>
       <c r="Q22" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V22" t="n">
         <v>1.57</v>
-      </c>
-      <c r="R22" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="U22" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.53</v>
       </c>
       <c r="W22" t="n">
         <v>1.29</v>
@@ -3634,10 +3634,10 @@
         <v>3.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AA22" t="n">
         <v>11</v>
@@ -3670,7 +3670,7 @@
         <v>34</v>
       </c>
       <c r="AK22" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AL22" t="n">
         <v>15</v>
@@ -3746,7 +3746,7 @@
         <v>1.03</v>
       </c>
       <c r="N23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O23" t="n">
         <v>1.17</v>
@@ -3761,16 +3761,16 @@
         <v>2.35</v>
       </c>
       <c r="S23" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="T23" t="n">
         <v>1.95</v>
       </c>
-      <c r="T23" t="n">
-        <v>1.9</v>
-      </c>
       <c r="U23" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V23" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W23" t="n">
         <v>1.29</v>
@@ -4015,28 +4015,28 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="H25" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I25" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="J25" t="n">
         <v>4.33</v>
       </c>
       <c r="K25" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L25" t="n">
         <v>2.75</v>
       </c>
       <c r="M25" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N25" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O25" t="n">
         <v>1.33</v>
@@ -4045,10 +4045,10 @@
         <v>3.25</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R25" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
@@ -4089,7 +4089,7 @@
         <v>41</v>
       </c>
       <c r="AG25" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH25" t="n">
         <v>6.5</v>
@@ -4174,10 +4174,10 @@
         <v>1.83</v>
       </c>
       <c r="M26" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O26" t="n">
         <v>1.22</v>
@@ -4186,10 +4186,10 @@
         <v>4</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R26" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
@@ -4297,22 +4297,22 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="H27" t="n">
         <v>3.55</v>
       </c>
       <c r="I27" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="J27" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="K27" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="L27" t="n">
-        <v>4.15</v>
+        <v>4.25</v>
       </c>
       <c r="M27" t="n">
         <v>1.05</v>
@@ -4353,7 +4353,7 @@
         <v>2.05</v>
       </c>
       <c r="AA27" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AB27" t="n">
         <v>9</v>
@@ -4362,7 +4362,7 @@
         <v>8.25</v>
       </c>
       <c r="AD27" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AE27" t="n">
         <v>14</v>
@@ -4386,19 +4386,19 @@
         <v>400</v>
       </c>
       <c r="AL27" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AM27" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AN27" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AO27" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AP27" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AQ27" t="n">
         <v>35</v>
@@ -4438,13 +4438,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H28" t="n">
         <v>3.9</v>
       </c>
       <c r="I28" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J28" t="n">
         <v>2.1</v>
@@ -4497,13 +4497,13 @@
         <v>6.5</v>
       </c>
       <c r="AB28" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AC28" t="n">
         <v>8.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE28" t="n">
         <v>13</v>
@@ -4533,7 +4533,7 @@
         <v>34</v>
       </c>
       <c r="AN28" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO28" t="n">
         <v>67</v>
@@ -4790,7 +4790,7 @@
         <v>35</v>
       </c>
       <c r="AG30" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AH30" t="n">
         <v>5.9</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-03.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-03.xlsx
@@ -981,16 +981,16 @@
         <v>1.5</v>
       </c>
       <c r="H4" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I4" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J4" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K4" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L4" t="n">
         <v>6</v>
@@ -1058,7 +1058,7 @@
         <v>8.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ4" t="n">
         <v>51</v>
@@ -1067,7 +1067,7 @@
         <v>251</v>
       </c>
       <c r="AL4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM4" t="n">
         <v>29</v>
@@ -1158,7 +1158,7 @@
         <v>3.85</v>
       </c>
       <c r="T5" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="U5" t="n">
         <v>4.5</v>
@@ -1417,16 +1417,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I7" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J7" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K7" t="n">
         <v>1.83</v>
@@ -1465,16 +1465,16 @@
         <v>1.13</v>
       </c>
       <c r="W7" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="X7" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AA7" t="n">
         <v>5.5</v>
@@ -1483,19 +1483,19 @@
         <v>9.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF7" t="n">
         <v>41</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AH7" t="n">
         <v>6</v>
@@ -1510,7 +1510,7 @@
         <v>501</v>
       </c>
       <c r="AL7" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AM7" t="n">
         <v>15</v>
@@ -1566,13 +1566,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H8" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I8" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="J8" t="n">
         <v>3</v>
@@ -1626,10 +1626,10 @@
         <v>1.44</v>
       </c>
       <c r="AA8" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AB8" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AC8" t="n">
         <v>11</v>
@@ -1638,7 +1638,7 @@
         <v>19</v>
       </c>
       <c r="AE8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF8" t="n">
         <v>51</v>
@@ -1647,7 +1647,7 @@
         <v>4.75</v>
       </c>
       <c r="AH8" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI8" t="n">
         <v>26</v>
@@ -1662,16 +1662,16 @@
         <v>7.5</v>
       </c>
       <c r="AM8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO8" t="n">
         <v>51</v>
       </c>
       <c r="AP8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AQ8" t="n">
         <v>67</v>
@@ -1888,10 +1888,10 @@
         <v>7</v>
       </c>
       <c r="O10" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P10" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q10" t="n">
         <v>2.5</v>
@@ -1900,10 +1900,10 @@
         <v>1.5</v>
       </c>
       <c r="S10" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="T10" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="U10" t="n">
         <v>5</v>
@@ -1975,10 +1975,10 @@
         <v>51</v>
       </c>
       <c r="AR10" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="11">
@@ -2031,28 +2031,28 @@
         <v>4.33</v>
       </c>
       <c r="M11" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O11" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P11" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R11" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S11" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="T11" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="U11" t="n">
         <v>5</v>
@@ -2124,10 +2124,10 @@
         <v>41</v>
       </c>
       <c r="AR11" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="12">
@@ -2165,7 +2165,7 @@
         <v>1.11</v>
       </c>
       <c r="H12" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="I12" t="n">
         <v>25</v>
@@ -2189,13 +2189,13 @@
         <v>1.14</v>
       </c>
       <c r="P12" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="R12" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
@@ -2218,7 +2218,7 @@
         <v>1.44</v>
       </c>
       <c r="AA12" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AB12" t="n">
         <v>6</v>
@@ -2239,7 +2239,7 @@
         <v>10.75</v>
       </c>
       <c r="AH12" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI12" t="n">
         <v>55</v>
@@ -2303,22 +2303,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>4.7</v>
+        <v>4.65</v>
       </c>
       <c r="H13" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I13" t="n">
         <v>1.7</v>
       </c>
       <c r="J13" t="n">
-        <v>4.85</v>
+        <v>4.8</v>
       </c>
       <c r="K13" t="n">
         <v>2.18</v>
       </c>
       <c r="L13" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="M13" t="n">
         <v>1.06</v>
@@ -2333,7 +2333,7 @@
         <v>3.45</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R13" t="n">
         <v>1.9</v>
@@ -2356,7 +2356,7 @@
         <v>1.82</v>
       </c>
       <c r="Z13" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="AA13" t="n">
         <v>12.5</v>
@@ -2374,16 +2374,16 @@
         <v>50</v>
       </c>
       <c r="AF13" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AG13" t="n">
         <v>8</v>
       </c>
       <c r="AH13" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AI13" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AJ13" t="n">
         <v>80</v>
@@ -2392,22 +2392,22 @@
         <v>700</v>
       </c>
       <c r="AL13" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AM13" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AN13" t="n">
         <v>8.75</v>
       </c>
       <c r="AO13" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AP13" t="n">
         <v>14.5</v>
       </c>
       <c r="AQ13" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AR13" t="inlineStr"/>
       <c r="AS13" t="inlineStr"/>
@@ -2462,10 +2462,10 @@
         <v>2.3</v>
       </c>
       <c r="M14" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O14" t="n">
         <v>1.22</v>
@@ -2474,10 +2474,10 @@
         <v>4</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R14" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
@@ -2594,7 +2594,7 @@
         <v>2.88</v>
       </c>
       <c r="J15" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K15" t="n">
         <v>2.1</v>
@@ -2609,39 +2609,39 @@
         <v>10</v>
       </c>
       <c r="O15" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P15" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="R15" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V15" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="W15" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X15" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="Z15" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AA15" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AB15" t="n">
         <v>12</v>
@@ -2653,31 +2653,31 @@
         <v>23</v>
       </c>
       <c r="AE15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF15" t="n">
         <v>29</v>
       </c>
       <c r="AG15" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>251</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM15" t="n">
         <v>13</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>201</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>15</v>
       </c>
       <c r="AN15" t="n">
         <v>11</v>
@@ -2689,7 +2689,7 @@
         <v>23</v>
       </c>
       <c r="AQ15" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR15" t="inlineStr"/>
       <c r="AS15" t="inlineStr"/>
@@ -2726,58 +2726,58 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="H16" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="I16" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="J16" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L16" t="n">
+        <v>7</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N16" t="n">
+        <v>9</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q16" t="n">
         <v>2.3</v>
       </c>
-      <c r="K16" t="n">
-        <v>2</v>
-      </c>
-      <c r="L16" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N16" t="n">
-        <v>8</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.35</v>
-      </c>
       <c r="R16" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S16" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="T16" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="U16" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="V16" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="W16" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X16" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Y16" t="n">
         <v>2.38</v>
@@ -2789,16 +2789,16 @@
         <v>5</v>
       </c>
       <c r="AB16" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AC16" t="n">
         <v>9</v>
       </c>
       <c r="AD16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF16" t="n">
         <v>41</v>
@@ -2813,19 +2813,19 @@
         <v>23</v>
       </c>
       <c r="AJ16" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AK16" t="n">
         <v>101</v>
       </c>
       <c r="AL16" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AM16" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO16" t="n">
         <v>67</v>
@@ -2837,10 +2837,10 @@
         <v>51</v>
       </c>
       <c r="AR16" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="AS16" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="17">
@@ -2896,7 +2896,7 @@
         <v>1.03</v>
       </c>
       <c r="N17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O17" t="n">
         <v>1.17</v>
@@ -2911,10 +2911,10 @@
         <v>2.35</v>
       </c>
       <c r="S17" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="T17" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="U17" t="n">
         <v>2.38</v>
@@ -3153,22 +3153,22 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.9</v>
+        <v>4.05</v>
       </c>
       <c r="H19" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I19" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="J19" t="n">
-        <v>4.15</v>
+        <v>4.25</v>
       </c>
       <c r="K19" t="n">
-        <v>2.22</v>
+        <v>2.15</v>
       </c>
       <c r="L19" t="n">
-        <v>2.32</v>
+        <v>2.37</v>
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
@@ -3179,15 +3179,15 @@
         <v>3.55</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R19" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="V19" t="n">
         <v>1.42</v>
@@ -3199,61 +3199,61 @@
         <v>2.55</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="Z19" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="AA19" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AB19" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC19" t="n">
         <v>13</v>
       </c>
       <c r="AD19" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AE19" t="n">
+        <v>35</v>
+      </c>
+      <c r="AF19" t="n">
         <v>32</v>
       </c>
-      <c r="AF19" t="n">
-        <v>35</v>
-      </c>
       <c r="AG19" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH19" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="AI19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ19" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AK19" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AL19" t="n">
         <v>8.5</v>
       </c>
       <c r="AM19" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AN19" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AO19" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AP19" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AQ19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR19" t="inlineStr"/>
       <c r="AS19" t="inlineStr"/>
@@ -3293,7 +3293,7 @@
         <v>1.65</v>
       </c>
       <c r="H20" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I20" t="n">
         <v>4.75</v>
@@ -3302,58 +3302,58 @@
         <v>2.2</v>
       </c>
       <c r="K20" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L20" t="n">
         <v>4.5</v>
       </c>
       <c r="M20" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O20" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P20" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="R20" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="S20" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="T20" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="U20" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X20" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Z20" t="n">
         <v>2.38</v>
       </c>
-      <c r="V20" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W20" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="X20" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>2.25</v>
-      </c>
       <c r="AA20" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB20" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AC20" t="n">
         <v>8.5</v>
@@ -3365,7 +3365,7 @@
         <v>12</v>
       </c>
       <c r="AF20" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG20" t="n">
         <v>17</v>
@@ -3374,16 +3374,16 @@
         <v>8</v>
       </c>
       <c r="AI20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ20" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK20" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AL20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM20" t="n">
         <v>29</v>
@@ -3435,10 +3435,10 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H21" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I21" t="n">
         <v>3</v>
@@ -3447,7 +3447,7 @@
         <v>2.75</v>
       </c>
       <c r="K21" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L21" t="n">
         <v>3.4</v>
@@ -3483,25 +3483,25 @@
         <v>1.5</v>
       </c>
       <c r="W21" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X21" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB21" t="n">
         <v>13</v>
       </c>
       <c r="AC21" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD21" t="n">
         <v>21</v>
@@ -3513,7 +3513,7 @@
         <v>21</v>
       </c>
       <c r="AG21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH21" t="n">
         <v>7.5</v>
@@ -3522,16 +3522,16 @@
         <v>12</v>
       </c>
       <c r="AJ21" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK21" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AL21" t="n">
         <v>13</v>
       </c>
       <c r="AM21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN21" t="n">
         <v>11</v>
@@ -3543,7 +3543,7 @@
         <v>21</v>
       </c>
       <c r="AQ21" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR21" t="inlineStr"/>
       <c r="AS21" t="inlineStr"/>
@@ -3580,22 +3580,22 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="H22" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I22" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="J22" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K22" t="n">
         <v>2.4</v>
       </c>
       <c r="L22" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M22" t="n">
         <v>1.03</v>
@@ -3604,10 +3604,10 @@
         <v>17</v>
       </c>
       <c r="O22" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P22" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q22" t="n">
         <v>1.53</v>
@@ -3616,10 +3616,10 @@
         <v>2.4</v>
       </c>
       <c r="S22" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="T22" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="U22" t="n">
         <v>2.25</v>
@@ -3643,25 +3643,25 @@
         <v>11</v>
       </c>
       <c r="AB22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC22" t="n">
         <v>9</v>
       </c>
       <c r="AD22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF22" t="n">
         <v>19</v>
       </c>
-      <c r="AE22" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>21</v>
-      </c>
       <c r="AG22" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH22" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI22" t="n">
         <v>12</v>
@@ -3679,13 +3679,13 @@
         <v>21</v>
       </c>
       <c r="AN22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO22" t="n">
         <v>41</v>
       </c>
       <c r="AP22" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ22" t="n">
         <v>26</v>
@@ -3725,10 +3725,10 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H23" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I23" t="n">
         <v>2.2</v>
@@ -3737,7 +3737,7 @@
         <v>3.4</v>
       </c>
       <c r="K23" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L23" t="n">
         <v>2.75</v>
@@ -3749,28 +3749,28 @@
         <v>17</v>
       </c>
       <c r="O23" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P23" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R23" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S23" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="T23" t="n">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="U23" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V23" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W23" t="n">
         <v>1.29</v>
@@ -3779,10 +3779,10 @@
         <v>3.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Z23" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AA23" t="n">
         <v>15</v>
@@ -3791,7 +3791,7 @@
         <v>19</v>
       </c>
       <c r="AC23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD23" t="n">
         <v>34</v>
@@ -3803,10 +3803,10 @@
         <v>23</v>
       </c>
       <c r="AG23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH23" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI23" t="n">
         <v>11</v>
@@ -3818,7 +3818,7 @@
         <v>101</v>
       </c>
       <c r="AL23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM23" t="n">
         <v>13</v>
@@ -3833,7 +3833,7 @@
         <v>15</v>
       </c>
       <c r="AQ23" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR23" t="inlineStr"/>
       <c r="AS23" t="inlineStr"/>
@@ -3876,7 +3876,7 @@
         <v>2.9</v>
       </c>
       <c r="I24" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J24" t="n">
         <v>3.6</v>
@@ -3885,7 +3885,7 @@
         <v>1.83</v>
       </c>
       <c r="L24" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M24" t="n">
         <v>1.13</v>
@@ -3914,19 +3914,19 @@
         <v>1.13</v>
       </c>
       <c r="W24" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="X24" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y24" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Z24" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AA24" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB24" t="n">
         <v>11</v>
@@ -3944,7 +3944,7 @@
         <v>41</v>
       </c>
       <c r="AG24" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AH24" t="n">
         <v>6</v>
@@ -3968,7 +3968,7 @@
         <v>12</v>
       </c>
       <c r="AO24" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP24" t="n">
         <v>29</v>
@@ -4015,28 +4015,28 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="H25" t="n">
         <v>3.3</v>
       </c>
       <c r="I25" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="J25" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K25" t="n">
         <v>2.05</v>
       </c>
       <c r="L25" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M25" t="n">
         <v>1.07</v>
       </c>
       <c r="N25" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O25" t="n">
         <v>1.33</v>
@@ -4071,10 +4071,10 @@
         <v>1.91</v>
       </c>
       <c r="AA25" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB25" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC25" t="n">
         <v>13</v>
@@ -4083,7 +4083,7 @@
         <v>41</v>
       </c>
       <c r="AE25" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AF25" t="n">
         <v>41</v>
@@ -4107,16 +4107,16 @@
         <v>7</v>
       </c>
       <c r="AM25" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AN25" t="n">
         <v>9</v>
       </c>
       <c r="AO25" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP25" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ25" t="n">
         <v>29</v>
@@ -4180,24 +4180,24 @@
         <v>15</v>
       </c>
       <c r="O26" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P26" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R26" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V26" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="W26" t="n">
         <v>1.33</v>
@@ -4524,7 +4524,7 @@
         <v>67</v>
       </c>
       <c r="AK28" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AL28" t="n">
         <v>15</v>
@@ -4579,22 +4579,22 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="H29" t="n">
         <v>4.2</v>
       </c>
       <c r="I29" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="J29" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="K29" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="L29" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="M29" t="n">
         <v>1.02</v>
@@ -4603,24 +4603,24 @@
         <v>21</v>
       </c>
       <c r="O29" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="P29" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="R29" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V29" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W29" t="n">
         <v>1.22</v>
@@ -4629,10 +4629,10 @@
         <v>4</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AA29" t="n">
         <v>23</v>
@@ -4729,13 +4729,13 @@
         <v>3.45</v>
       </c>
       <c r="J30" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="K30" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="L30" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
@@ -4760,19 +4760,19 @@
         <v>1.2</v>
       </c>
       <c r="W30" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="X30" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="Y30" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="Z30" t="n">
         <v>1.72</v>
       </c>
       <c r="AA30" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AB30" t="n">
         <v>9.5</v>
@@ -4784,7 +4784,7 @@
         <v>21</v>
       </c>
       <c r="AE30" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF30" t="n">
         <v>35</v>
@@ -4805,22 +4805,22 @@
         <v>900</v>
       </c>
       <c r="AL30" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AM30" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AN30" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AO30" t="n">
         <v>50</v>
       </c>
       <c r="AP30" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AQ30" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AR30" t="inlineStr"/>
       <c r="AS30" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-03.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-03.xlsx
@@ -692,13 +692,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="H2" t="n">
         <v>5.5</v>
       </c>
       <c r="I2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="J2" t="n">
         <v>1.73</v>
@@ -707,7 +707,7 @@
         <v>2.88</v>
       </c>
       <c r="L2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M2" t="n">
         <v>1.02</v>
@@ -716,10 +716,10 @@
         <v>21</v>
       </c>
       <c r="O2" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="P2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q2" t="n">
         <v>1.36</v>
@@ -755,7 +755,7 @@
         <v>13</v>
       </c>
       <c r="AB2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AC2" t="n">
         <v>10</v>
@@ -773,7 +773,7 @@
         <v>23</v>
       </c>
       <c r="AH2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI2" t="n">
         <v>19</v>
@@ -791,16 +791,16 @@
         <v>51</v>
       </c>
       <c r="AN2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO2" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AP2" t="n">
         <v>51</v>
       </c>
       <c r="AQ2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR2" t="inlineStr"/>
       <c r="AS2" t="inlineStr"/>
@@ -840,10 +840,10 @@
         <v>4.2</v>
       </c>
       <c r="H3" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I3" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="J3" t="n">
         <v>4.33</v>
@@ -867,10 +867,10 @@
         <v>3.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="R3" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
@@ -887,10 +887,10 @@
         <v>3</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="Z3" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AA3" t="n">
         <v>13</v>
@@ -908,7 +908,7 @@
         <v>34</v>
       </c>
       <c r="AF3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG3" t="n">
         <v>11</v>
@@ -1008,10 +1008,10 @@
         <v>4.33</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="R4" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
@@ -1268,85 +1268,85 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.6</v>
+        <v>2.38</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="I6" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="J6" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N6" t="n">
+        <v>9</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P6" t="n">
         <v>3.25</v>
       </c>
-      <c r="K6" t="n">
-        <v>2</v>
-      </c>
-      <c r="L6" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N6" t="n">
-        <v>8</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3</v>
-      </c>
       <c r="Q6" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="R6" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="S6" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="T6" t="n">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="U6" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="V6" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W6" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X6" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Y6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Z6" t="n">
         <v>1.95</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>1.8</v>
       </c>
       <c r="AA6" t="n">
         <v>7.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG6" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AH6" t="n">
         <v>6</v>
@@ -1358,31 +1358,31 @@
         <v>51</v>
       </c>
       <c r="AK6" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AL6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AM6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN6" t="n">
         <v>11</v>
       </c>
       <c r="AO6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP6" t="n">
         <v>26</v>
       </c>
       <c r="AQ6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR6" t="n">
-        <v>1.69</v>
+        <v>1.6</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.18</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="7">
@@ -1435,10 +1435,10 @@
         <v>4.33</v>
       </c>
       <c r="M7" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N7" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O7" t="n">
         <v>1.57</v>
@@ -1486,10 +1486,10 @@
         <v>11</v>
       </c>
       <c r="AD7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE7" t="n">
         <v>23</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>26</v>
       </c>
       <c r="AF7" t="n">
         <v>41</v>
@@ -1510,13 +1510,13 @@
         <v>501</v>
       </c>
       <c r="AL7" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AM7" t="n">
         <v>15</v>
       </c>
       <c r="AN7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO7" t="n">
         <v>41</v>
@@ -2162,111 +2162,111 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="H12" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="I12" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="J12" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="K12" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="L12" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M12" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N12" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="O12" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="P12" t="n">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="R12" t="n">
-        <v>2.67</v>
+        <v>2.87</v>
       </c>
       <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="n">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="V12" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="W12" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="X12" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="Y12" t="n">
-        <v>2.62</v>
+        <v>2.57</v>
       </c>
       <c r="Z12" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="AA12" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="AB12" t="n">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="AC12" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AE12" t="n">
         <v>13</v>
       </c>
       <c r="AF12" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AG12" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AH12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI12" t="n">
         <v>55</v>
       </c>
       <c r="AJ12" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AK12" t="n">
         <v>700</v>
       </c>
       <c r="AL12" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AM12" t="n">
-        <v>350</v>
+        <v>600</v>
       </c>
       <c r="AN12" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
       </c>
       <c r="AP12" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="AQ12" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AR12" t="inlineStr"/>
       <c r="AS12" t="inlineStr"/>
@@ -2444,13 +2444,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="H14" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I14" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="J14" t="n">
         <v>5</v>
@@ -2459,13 +2459,13 @@
         <v>2.3</v>
       </c>
       <c r="L14" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="M14" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O14" t="n">
         <v>1.22</v>
@@ -2474,10 +2474,10 @@
         <v>4</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R14" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
@@ -2488,16 +2488,16 @@
         <v>1.4</v>
       </c>
       <c r="W14" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X14" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Z14" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AA14" t="n">
         <v>13</v>
@@ -2530,10 +2530,10 @@
         <v>51</v>
       </c>
       <c r="AK14" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AL14" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AM14" t="n">
         <v>8.5</v>
@@ -2615,7 +2615,7 @@
         <v>3.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="R15" t="n">
         <v>1.8</v>
@@ -2623,10 +2623,10 @@
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V15" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W15" t="n">
         <v>1.44</v>
@@ -2647,7 +2647,7 @@
         <v>12</v>
       </c>
       <c r="AC15" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD15" t="n">
         <v>23</v>
@@ -2726,52 +2726,52 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.57</v>
+        <v>1.48</v>
       </c>
       <c r="H16" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="I16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>8</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N16" t="n">
+        <v>10</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="n">
         <v>2.2</v>
       </c>
-      <c r="K16" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L16" t="n">
-        <v>7</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N16" t="n">
-        <v>9</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.3</v>
-      </c>
       <c r="R16" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="S16" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="T16" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="U16" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="V16" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="W16" t="n">
         <v>1.5</v>
@@ -2780,10 +2780,10 @@
         <v>2.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AA16" t="n">
         <v>5</v>
@@ -2795,7 +2795,7 @@
         <v>9</v>
       </c>
       <c r="AD16" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AE16" t="n">
         <v>15</v>
@@ -2807,34 +2807,34 @@
         <v>7.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI16" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ16" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK16" t="n">
         <v>101</v>
       </c>
       <c r="AL16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM16" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO16" t="n">
+        <v>101</v>
+      </c>
+      <c r="AP16" t="n">
         <v>67</v>
       </c>
-      <c r="AP16" t="n">
-        <v>51</v>
-      </c>
       <c r="AQ16" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR16" t="n">
         <v>1.78</v>
@@ -2875,22 +2875,22 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="H17" t="n">
         <v>3.4</v>
       </c>
       <c r="I17" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="J17" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K17" t="n">
         <v>2.38</v>
       </c>
       <c r="L17" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M17" t="n">
         <v>1.03</v>
@@ -2899,28 +2899,28 @@
         <v>17</v>
       </c>
       <c r="O17" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P17" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q17" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V17" t="n">
         <v>1.57</v>
-      </c>
-      <c r="R17" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U17" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.53</v>
       </c>
       <c r="W17" t="n">
         <v>1.29</v>
@@ -2938,25 +2938,25 @@
         <v>13</v>
       </c>
       <c r="AB17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD17" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE17" t="n">
         <v>19</v>
       </c>
       <c r="AF17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AG17" t="n">
         <v>17</v>
       </c>
       <c r="AH17" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI17" t="n">
         <v>11</v>
@@ -2977,10 +2977,10 @@
         <v>10</v>
       </c>
       <c r="AO17" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ17" t="n">
         <v>21</v>
@@ -3290,22 +3290,22 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H20" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I20" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="J20" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K20" t="n">
         <v>2.5</v>
       </c>
       <c r="L20" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M20" t="n">
         <v>1.02</v>
@@ -3344,22 +3344,22 @@
         <v>3.75</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC20" t="n">
         <v>8.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE20" t="n">
         <v>12</v>
@@ -3368,7 +3368,7 @@
         <v>19</v>
       </c>
       <c r="AG20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH20" t="n">
         <v>8</v>
@@ -3386,19 +3386,19 @@
         <v>19</v>
       </c>
       <c r="AM20" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN20" t="n">
         <v>15</v>
       </c>
       <c r="AO20" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP20" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ20" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR20" t="inlineStr"/>
       <c r="AS20" t="inlineStr"/>
@@ -3435,40 +3435,40 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="H21" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="I21" t="n">
         <v>3</v>
       </c>
       <c r="J21" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K21" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="L21" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M21" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O21" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="P21" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="R21" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="S21" t="n">
         <v>2.03</v>
@@ -3477,28 +3477,28 @@
         <v>1.83</v>
       </c>
       <c r="U21" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V21" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="W21" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="X21" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="Z21" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AA21" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AB21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC21" t="n">
         <v>9.5</v>
@@ -3507,43 +3507,43 @@
         <v>21</v>
       </c>
       <c r="AE21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AG21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>151</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM21" t="n">
         <v>17</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>101</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>19</v>
       </c>
       <c r="AN21" t="n">
         <v>11</v>
       </c>
       <c r="AO21" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP21" t="n">
         <v>21</v>
       </c>
       <c r="AQ21" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AR21" t="inlineStr"/>
       <c r="AS21" t="inlineStr"/>
@@ -3592,16 +3592,16 @@
         <v>2.4</v>
       </c>
       <c r="K22" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L22" t="n">
         <v>4</v>
       </c>
       <c r="M22" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N22" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O22" t="n">
         <v>1.14</v>
@@ -3610,28 +3610,28 @@
         <v>5.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R22" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S22" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T22" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="U22" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V22" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W22" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="X22" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Y22" t="n">
         <v>1.5</v>
@@ -3643,7 +3643,7 @@
         <v>11</v>
       </c>
       <c r="AB22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC22" t="n">
         <v>9</v>
@@ -3673,10 +3673,10 @@
         <v>101</v>
       </c>
       <c r="AL22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM22" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN22" t="n">
         <v>13</v>
@@ -3725,13 +3725,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H23" t="n">
         <v>3.7</v>
       </c>
       <c r="I23" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J23" t="n">
         <v>3.4</v>
@@ -3791,7 +3791,7 @@
         <v>19</v>
       </c>
       <c r="AC23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD23" t="n">
         <v>34</v>
@@ -4015,28 +4015,28 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="H25" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I25" t="n">
+        <v>2</v>
+      </c>
+      <c r="J25" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K25" t="n">
         <v>2.1</v>
       </c>
-      <c r="J25" t="n">
-        <v>4</v>
-      </c>
-      <c r="K25" t="n">
-        <v>2.05</v>
-      </c>
       <c r="L25" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M25" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O25" t="n">
         <v>1.33</v>
@@ -4045,10 +4045,10 @@
         <v>3.25</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R25" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
@@ -4071,10 +4071,10 @@
         <v>1.91</v>
       </c>
       <c r="AA25" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB25" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC25" t="n">
         <v>13</v>
@@ -4083,13 +4083,13 @@
         <v>41</v>
       </c>
       <c r="AE25" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF25" t="n">
         <v>41</v>
       </c>
       <c r="AG25" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AH25" t="n">
         <v>6.5</v>
@@ -4107,16 +4107,16 @@
         <v>7</v>
       </c>
       <c r="AM25" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AN25" t="n">
         <v>9</v>
       </c>
       <c r="AO25" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP25" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ25" t="n">
         <v>29</v>
@@ -4297,63 +4297,63 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="H27" t="n">
-        <v>3.55</v>
+        <v>3.85</v>
       </c>
       <c r="I27" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J27" t="n">
-        <v>2.42</v>
+        <v>2.25</v>
       </c>
       <c r="K27" t="n">
-        <v>2.15</v>
+        <v>2.27</v>
       </c>
       <c r="L27" t="n">
-        <v>4.25</v>
+        <v>4.4</v>
       </c>
       <c r="M27" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N27" t="n">
-        <v>7.8</v>
+        <v>8.5</v>
       </c>
       <c r="O27" t="n">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="P27" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.78</v>
+        <v>1.65</v>
       </c>
       <c r="R27" t="n">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="n">
-        <v>2.82</v>
+        <v>2.57</v>
       </c>
       <c r="V27" t="n">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="W27" t="n">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="X27" t="n">
-        <v>2.82</v>
+        <v>3</v>
       </c>
       <c r="Y27" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="Z27" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AA27" t="n">
-        <v>7.6</v>
+        <v>8.5</v>
       </c>
       <c r="AB27" t="n">
         <v>9</v>
@@ -4362,46 +4362,46 @@
         <v>8.25</v>
       </c>
       <c r="AD27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AE27" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AI27" t="n">
         <v>14</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>24</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>13.5</v>
       </c>
       <c r="AJ27" t="n">
         <v>55</v>
       </c>
       <c r="AK27" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AL27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AM27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AN27" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AO27" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AP27" t="n">
         <v>35</v>
       </c>
       <c r="AQ27" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AR27" t="inlineStr"/>
       <c r="AS27" t="inlineStr"/>
@@ -4603,24 +4603,24 @@
         <v>21</v>
       </c>
       <c r="O29" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="P29" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="R29" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V29" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W29" t="n">
         <v>1.22</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-03.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-03.xlsx
@@ -716,16 +716,16 @@
         <v>21</v>
       </c>
       <c r="O2" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="P2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="R2" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="S2" t="n">
         <v>1.95</v>
@@ -740,49 +740,49 @@
         <v>1.91</v>
       </c>
       <c r="W2" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="X2" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Z2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AA2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC2" t="n">
         <v>9.5</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AD2" t="n">
         <v>10</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>11</v>
       </c>
       <c r="AE2" t="n">
         <v>11</v>
       </c>
       <c r="AF2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG2" t="n">
         <v>21</v>
       </c>
-      <c r="AG2" t="n">
-        <v>23</v>
-      </c>
       <c r="AH2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI2" t="n">
         <v>19</v>
       </c>
       <c r="AJ2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AK2" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL2" t="n">
         <v>34</v>
@@ -797,7 +797,7 @@
         <v>126</v>
       </c>
       <c r="AP2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AQ2" t="n">
         <v>51</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H3" t="n">
         <v>3.5</v>
@@ -867,10 +867,10 @@
         <v>3.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="R3" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
@@ -978,13 +978,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H4" t="n">
         <v>4.5</v>
       </c>
       <c r="I4" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J4" t="n">
         <v>2</v>
@@ -1043,7 +1043,7 @@
         <v>8.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE4" t="n">
         <v>12</v>
@@ -1070,10 +1070,10 @@
         <v>17</v>
       </c>
       <c r="AM4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO4" t="n">
         <v>67</v>
@@ -1149,22 +1149,22 @@
         <v>2.63</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R5" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S5" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="T5" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="U5" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="V5" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W5" t="n">
         <v>1.53</v>
@@ -1230,10 +1230,10 @@
         <v>41</v>
       </c>
       <c r="AR5" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="AS5" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="6">
@@ -1268,16 +1268,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="H6" t="n">
         <v>3.2</v>
       </c>
       <c r="I6" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J6" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
         <v>2.05</v>
@@ -1289,7 +1289,7 @@
         <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O6" t="n">
         <v>1.33</v>
@@ -1337,10 +1337,10 @@
         <v>9.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF6" t="n">
         <v>29</v>
@@ -1367,7 +1367,7 @@
         <v>15</v>
       </c>
       <c r="AN6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO6" t="n">
         <v>34</v>
@@ -1435,10 +1435,10 @@
         <v>4.33</v>
       </c>
       <c r="M7" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N7" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O7" t="n">
         <v>1.57</v>
@@ -1453,7 +1453,7 @@
         <v>1.4</v>
       </c>
       <c r="S7" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="T7" t="n">
         <v>1.18</v>
@@ -1572,7 +1572,7 @@
         <v>2.88</v>
       </c>
       <c r="I8" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J8" t="n">
         <v>3</v>
@@ -1596,10 +1596,10 @@
         <v>2</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R8" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="S8" t="n">
         <v>6.2</v>
@@ -1614,10 +1614,10 @@
         <v>1.08</v>
       </c>
       <c r="W8" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="X8" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="Y8" t="n">
         <v>2.63</v>
@@ -1626,7 +1626,7 @@
         <v>1.44</v>
       </c>
       <c r="AA8" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AB8" t="n">
         <v>8</v>
@@ -1671,7 +1671,7 @@
         <v>51</v>
       </c>
       <c r="AP8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AQ8" t="n">
         <v>67</v>
@@ -1888,10 +1888,10 @@
         <v>7</v>
       </c>
       <c r="O10" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P10" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q10" t="n">
         <v>2.5</v>
@@ -1900,10 +1900,10 @@
         <v>1.5</v>
       </c>
       <c r="S10" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="T10" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="U10" t="n">
         <v>5</v>
@@ -1975,10 +1975,10 @@
         <v>51</v>
       </c>
       <c r="AR10" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="11">
@@ -2303,48 +2303,48 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>4.65</v>
+        <v>4.8</v>
       </c>
       <c r="H13" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I13" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="J13" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="K13" t="n">
         <v>2.18</v>
       </c>
       <c r="L13" t="n">
-        <v>2.27</v>
+        <v>2.22</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="O13" t="n">
         <v>1.28</v>
       </c>
       <c r="P13" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="R13" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="V13" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="W13" t="n">
         <v>1.4</v>
@@ -2353,19 +2353,19 @@
         <v>2.8</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="Z13" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="AA13" t="n">
         <v>12.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AC13" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AD13" t="n">
         <v>90</v>
@@ -2374,16 +2374,16 @@
         <v>50</v>
       </c>
       <c r="AF13" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AG13" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AH13" t="n">
         <v>7.7</v>
       </c>
       <c r="AI13" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AJ13" t="n">
         <v>80</v>
@@ -2392,22 +2392,22 @@
         <v>700</v>
       </c>
       <c r="AL13" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AM13" t="n">
         <v>8.25</v>
       </c>
       <c r="AN13" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AO13" t="n">
         <v>13.5</v>
       </c>
       <c r="AP13" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AQ13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AR13" t="inlineStr"/>
       <c r="AS13" t="inlineStr"/>
@@ -2444,22 +2444,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="H14" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I14" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="J14" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="K14" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L14" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="M14" t="n">
         <v>1.04</v>
@@ -2468,42 +2468,42 @@
         <v>13</v>
       </c>
       <c r="O14" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="P14" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="R14" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V14" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="W14" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X14" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="Z14" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AA14" t="n">
         <v>13</v>
       </c>
       <c r="AB14" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC14" t="n">
         <v>15</v>
@@ -2512,13 +2512,13 @@
         <v>51</v>
       </c>
       <c r="AE14" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AF14" t="n">
         <v>41</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH14" t="n">
         <v>8</v>
@@ -2530,25 +2530,25 @@
         <v>51</v>
       </c>
       <c r="AK14" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AL14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AM14" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AN14" t="n">
         <v>8.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP14" t="n">
         <v>13</v>
       </c>
       <c r="AQ14" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR14" t="inlineStr"/>
       <c r="AS14" t="inlineStr"/>
@@ -2585,66 +2585,66 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H15" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I15" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="J15" t="n">
         <v>3.2</v>
       </c>
       <c r="K15" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L15" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M15" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O15" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="P15" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="Q15" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R15" t="n">
         <v>2</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.8</v>
       </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="n">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="V15" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="W15" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X15" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="Z15" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AA15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC15" t="n">
         <v>10</v>
@@ -2659,37 +2659,37 @@
         <v>29</v>
       </c>
       <c r="AG15" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AH15" t="n">
         <v>6.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ15" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AK15" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AL15" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AM15" t="n">
         <v>13</v>
       </c>
       <c r="AN15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO15" t="n">
         <v>29</v>
       </c>
       <c r="AP15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ15" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR15" t="inlineStr"/>
       <c r="AS15" t="inlineStr"/>
@@ -2726,13 +2726,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="H16" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I16" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J16" t="n">
         <v>2.1</v>
@@ -2741,19 +2741,19 @@
         <v>2.1</v>
       </c>
       <c r="L16" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="M16" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O16" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P16" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q16" t="n">
         <v>2.2</v>
@@ -2780,10 +2780,10 @@
         <v>2.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Z16" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="AA16" t="n">
         <v>5</v>
@@ -2795,7 +2795,7 @@
         <v>9</v>
       </c>
       <c r="AD16" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE16" t="n">
         <v>15</v>
@@ -2825,13 +2825,13 @@
         <v>34</v>
       </c>
       <c r="AN16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO16" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AP16" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AQ16" t="n">
         <v>67</v>
@@ -3290,22 +3290,22 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="H20" t="n">
         <v>3.9</v>
       </c>
       <c r="I20" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="J20" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K20" t="n">
         <v>2.5</v>
       </c>
       <c r="L20" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M20" t="n">
         <v>1.02</v>
@@ -3326,10 +3326,10 @@
         <v>2.5</v>
       </c>
       <c r="S20" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="T20" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="U20" t="n">
         <v>2.2</v>
@@ -3362,7 +3362,7 @@
         <v>15</v>
       </c>
       <c r="AE20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF20" t="n">
         <v>19</v>
@@ -3465,10 +3465,10 @@
         <v>4</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R21" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S21" t="n">
         <v>2.03</v>
@@ -3580,13 +3580,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H22" t="n">
         <v>3.9</v>
       </c>
       <c r="I22" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="J22" t="n">
         <v>2.4</v>
@@ -3595,7 +3595,7 @@
         <v>2.5</v>
       </c>
       <c r="L22" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M22" t="n">
         <v>1.02</v>
@@ -3610,10 +3610,10 @@
         <v>5.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="R22" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="S22" t="n">
         <v>1.8</v>
@@ -3622,10 +3622,10 @@
         <v>2.05</v>
       </c>
       <c r="U22" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V22" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W22" t="n">
         <v>1.25</v>
@@ -3634,13 +3634,13 @@
         <v>3.75</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Z22" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AA22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB22" t="n">
         <v>12</v>
@@ -3649,7 +3649,7 @@
         <v>9</v>
       </c>
       <c r="AD22" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE22" t="n">
         <v>13</v>
@@ -3658,7 +3658,7 @@
         <v>19</v>
       </c>
       <c r="AG22" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH22" t="n">
         <v>8</v>
@@ -3676,7 +3676,7 @@
         <v>17</v>
       </c>
       <c r="AM22" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN22" t="n">
         <v>13</v>
@@ -3685,10 +3685,10 @@
         <v>41</v>
       </c>
       <c r="AP22" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ22" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR22" t="inlineStr"/>
       <c r="AS22" t="inlineStr"/>
@@ -3755,10 +3755,10 @@
         <v>5.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R23" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S23" t="n">
         <v>1.83</v>
@@ -3870,69 +3870,69 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H24" t="n">
         <v>2.9</v>
       </c>
       <c r="I24" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="J24" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K24" t="n">
         <v>1.83</v>
       </c>
       <c r="L24" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M24" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N24" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O24" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="P24" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="R24" t="n">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="V24" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W24" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="X24" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y24" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Z24" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AA24" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD24" t="n">
         <v>29</v>
@@ -3944,13 +3944,13 @@
         <v>41</v>
       </c>
       <c r="AG24" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AH24" t="n">
         <v>6</v>
       </c>
       <c r="AI24" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ24" t="n">
         <v>81</v>
@@ -3965,10 +3965,10 @@
         <v>12</v>
       </c>
       <c r="AN24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO24" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP24" t="n">
         <v>29</v>
@@ -3977,10 +3977,10 @@
         <v>41</v>
       </c>
       <c r="AR24" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="25">
@@ -4015,16 +4015,16 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="H25" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I25" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="J25" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K25" t="n">
         <v>2.1</v>
@@ -4074,7 +4074,7 @@
         <v>10</v>
       </c>
       <c r="AB25" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC25" t="n">
         <v>13</v>
@@ -4083,7 +4083,7 @@
         <v>41</v>
       </c>
       <c r="AE25" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AF25" t="n">
         <v>41</v>
@@ -4107,13 +4107,13 @@
         <v>7</v>
       </c>
       <c r="AM25" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AN25" t="n">
         <v>9</v>
       </c>
       <c r="AO25" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP25" t="n">
         <v>17</v>
@@ -4159,7 +4159,7 @@
         <v>8</v>
       </c>
       <c r="H26" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I26" t="n">
         <v>1.36</v>
@@ -4168,7 +4168,7 @@
         <v>7.5</v>
       </c>
       <c r="K26" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L26" t="n">
         <v>1.83</v>
@@ -4180,36 +4180,36 @@
         <v>15</v>
       </c>
       <c r="O26" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P26" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R26" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V26" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W26" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X26" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Y26" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="Z26" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="AA26" t="n">
         <v>19</v>
@@ -4218,10 +4218,10 @@
         <v>41</v>
       </c>
       <c r="AC26" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD26" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AE26" t="n">
         <v>51</v>
@@ -4230,7 +4230,7 @@
         <v>51</v>
       </c>
       <c r="AG26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH26" t="n">
         <v>9.5</v>
@@ -4239,28 +4239,28 @@
         <v>21</v>
       </c>
       <c r="AJ26" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AK26" t="n">
-        <v>401</v>
+        <v>301</v>
       </c>
       <c r="AL26" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AM26" t="n">
         <v>7</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>6.5</v>
       </c>
       <c r="AN26" t="n">
         <v>8.5</v>
       </c>
       <c r="AO26" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AP26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AQ26" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR26" t="inlineStr"/>
       <c r="AS26" t="inlineStr"/>
@@ -4324,7 +4324,7 @@
         <v>1.22</v>
       </c>
       <c r="P27" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="Q27" t="n">
         <v>1.65</v>
@@ -4524,7 +4524,7 @@
         <v>67</v>
       </c>
       <c r="AK28" t="n">
-        <v>900</v>
+        <v>1250</v>
       </c>
       <c r="AL28" t="n">
         <v>15</v>
@@ -4579,22 +4579,22 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="H29" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I29" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="J29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K29" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="L29" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="M29" t="n">
         <v>1.02</v>
@@ -4629,55 +4629,55 @@
         <v>4</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="Z29" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="AA29" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB29" t="n">
         <v>41</v>
       </c>
       <c r="AC29" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD29" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AE29" t="n">
         <v>41</v>
       </c>
       <c r="AF29" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG29" t="n">
         <v>21</v>
       </c>
       <c r="AH29" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI29" t="n">
         <v>13</v>
       </c>
       <c r="AJ29" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK29" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AL29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM29" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AN29" t="n">
         <v>9</v>
       </c>
       <c r="AO29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP29" t="n">
         <v>11</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-03.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-03.xlsx
@@ -692,22 +692,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="H2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="I2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="J2" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="K2" t="n">
         <v>2.88</v>
       </c>
       <c r="L2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.02</v>
@@ -716,16 +716,16 @@
         <v>21</v>
       </c>
       <c r="O2" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="P2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="R2" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="S2" t="n">
         <v>1.95</v>
@@ -740,10 +740,10 @@
         <v>1.91</v>
       </c>
       <c r="W2" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="X2" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Y2" t="n">
         <v>1.67</v>
@@ -752,13 +752,13 @@
         <v>2.1</v>
       </c>
       <c r="AA2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD2" t="n">
         <v>10</v>
@@ -770,19 +770,19 @@
         <v>23</v>
       </c>
       <c r="AG2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI2" t="n">
         <v>21</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>19</v>
       </c>
       <c r="AJ2" t="n">
         <v>51</v>
       </c>
       <c r="AK2" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AL2" t="n">
         <v>34</v>
@@ -837,22 +837,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="H3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K3" t="n">
         <v>2.2</v>
       </c>
       <c r="L3" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
@@ -861,24 +861,24 @@
         <v>11</v>
       </c>
       <c r="O3" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P3" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="R3" t="n">
-        <v>1.99</v>
+        <v>2.03</v>
       </c>
       <c r="S3" t="inlineStr"/>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="V3" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="W3" t="n">
         <v>1.36</v>
@@ -887,16 +887,16 @@
         <v>3</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="Z3" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AA3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC3" t="n">
         <v>13</v>
@@ -905,10 +905,10 @@
         <v>41</v>
       </c>
       <c r="AE3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF3" t="n">
         <v>34</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>41</v>
       </c>
       <c r="AG3" t="n">
         <v>11</v>
@@ -929,7 +929,7 @@
         <v>8</v>
       </c>
       <c r="AM3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AN3" t="n">
         <v>8.5</v>
@@ -990,7 +990,7 @@
         <v>2</v>
       </c>
       <c r="K4" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L4" t="n">
         <v>6</v>
@@ -1008,10 +1008,10 @@
         <v>4.33</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="R4" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
@@ -1028,16 +1028,16 @@
         <v>3.25</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AA4" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB4" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AC4" t="n">
         <v>8.5</v>
@@ -1058,13 +1058,13 @@
         <v>8.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ4" t="n">
         <v>51</v>
       </c>
       <c r="AK4" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AL4" t="n">
         <v>17</v>
@@ -1119,85 +1119,85 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="I5" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="J5" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K5" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L5" t="n">
         <v>4.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O5" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="P5" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="Q5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X5" t="n">
         <v>2.5</v>
       </c>
-      <c r="R5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S5" t="n">
-        <v>4</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="U5" t="n">
-        <v>5</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="W5" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="X5" t="n">
-        <v>2.38</v>
-      </c>
       <c r="Y5" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="Z5" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AA5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AC5" t="n">
         <v>9</v>
       </c>
-      <c r="AC5" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AD5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE5" t="n">
         <v>19</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>21</v>
       </c>
       <c r="AF5" t="n">
         <v>34</v>
       </c>
       <c r="AG5" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AH5" t="n">
         <v>6</v>
@@ -1206,19 +1206,19 @@
         <v>17</v>
       </c>
       <c r="AJ5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AK5" t="n">
-        <v>501</v>
+        <v>401</v>
       </c>
       <c r="AL5" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AM5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO5" t="n">
         <v>41</v>
@@ -1230,10 +1230,10 @@
         <v>41</v>
       </c>
       <c r="AR5" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="6">
@@ -1289,7 +1289,7 @@
         <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O6" t="n">
         <v>1.33</v>
@@ -1417,22 +1417,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="H7" t="n">
         <v>2.9</v>
       </c>
       <c r="I7" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="J7" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="K7" t="n">
         <v>1.83</v>
       </c>
       <c r="L7" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M7" t="n">
         <v>1.13</v>
@@ -1480,10 +1480,10 @@
         <v>5.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AC7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD7" t="n">
         <v>21</v>
@@ -1513,7 +1513,7 @@
         <v>7.5</v>
       </c>
       <c r="AM7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AN7" t="n">
         <v>15</v>
@@ -1587,7 +1587,7 @@
         <v>1.17</v>
       </c>
       <c r="N8" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="O8" t="n">
         <v>1.73</v>
@@ -1626,7 +1626,7 @@
         <v>1.44</v>
       </c>
       <c r="AA8" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AB8" t="n">
         <v>8</v>
@@ -1671,7 +1671,7 @@
         <v>51</v>
       </c>
       <c r="AP8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AQ8" t="n">
         <v>67</v>
@@ -1715,19 +1715,19 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H9" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I9" t="n">
         <v>4.33</v>
       </c>
       <c r="J9" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K9" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L9" t="n">
         <v>5</v>
@@ -1739,22 +1739,22 @@
         <v>7</v>
       </c>
       <c r="O9" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P9" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R9" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S9" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="T9" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="U9" t="n">
         <v>5</v>
@@ -1784,7 +1784,7 @@
         <v>9.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE9" t="n">
         <v>19</v>
@@ -1793,7 +1793,7 @@
         <v>41</v>
       </c>
       <c r="AG9" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AH9" t="n">
         <v>6.5</v>
@@ -1826,10 +1826,10 @@
         <v>51</v>
       </c>
       <c r="AR9" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="10">
@@ -2013,22 +2013,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="H11" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I11" t="n">
         <v>3.25</v>
       </c>
-      <c r="I11" t="n">
-        <v>3.4</v>
-      </c>
       <c r="J11" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K11" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L11" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
         <v>1.1</v>
@@ -2067,22 +2067,22 @@
         <v>2.25</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AA11" t="n">
         <v>6</v>
       </c>
       <c r="AB11" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AC11" t="n">
         <v>10</v>
       </c>
       <c r="AD11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE11" t="n">
         <v>21</v>
@@ -2115,7 +2115,7 @@
         <v>13</v>
       </c>
       <c r="AO11" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP11" t="n">
         <v>34</v>
@@ -2124,10 +2124,10 @@
         <v>41</v>
       </c>
       <c r="AR11" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="12">
@@ -2585,22 +2585,22 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="H15" t="n">
         <v>3.4</v>
       </c>
       <c r="I15" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="J15" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K15" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L15" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M15" t="n">
         <v>1.05</v>
@@ -2609,24 +2609,24 @@
         <v>11</v>
       </c>
       <c r="O15" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P15" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="R15" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="V15" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="W15" t="n">
         <v>1.4</v>
@@ -2650,7 +2650,7 @@
         <v>10</v>
       </c>
       <c r="AD15" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE15" t="n">
         <v>21</v>
@@ -2659,7 +2659,7 @@
         <v>29</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH15" t="n">
         <v>6.5</v>
@@ -2674,7 +2674,7 @@
         <v>201</v>
       </c>
       <c r="AL15" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AM15" t="n">
         <v>13</v>
@@ -2683,7 +2683,7 @@
         <v>10</v>
       </c>
       <c r="AO15" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP15" t="n">
         <v>21</v>
@@ -3290,16 +3290,16 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="H20" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="I20" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="J20" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="K20" t="n">
         <v>2.5</v>
@@ -3356,10 +3356,10 @@
         <v>11</v>
       </c>
       <c r="AC20" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE20" t="n">
         <v>13</v>
@@ -3383,19 +3383,19 @@
         <v>101</v>
       </c>
       <c r="AL20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM20" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO20" t="n">
         <v>41</v>
       </c>
       <c r="AP20" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ20" t="n">
         <v>29</v>
@@ -3435,13 +3435,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H21" t="n">
         <v>3.5</v>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="J21" t="n">
         <v>2.88</v>
@@ -3450,7 +3450,7 @@
         <v>2.25</v>
       </c>
       <c r="L21" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M21" t="n">
         <v>1.04</v>
@@ -3465,10 +3465,10 @@
         <v>4</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R21" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S21" t="n">
         <v>2.03</v>
@@ -3477,10 +3477,10 @@
         <v>1.83</v>
       </c>
       <c r="U21" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V21" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="W21" t="n">
         <v>1.33</v>
@@ -3489,16 +3489,16 @@
         <v>3.25</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Z21" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AA21" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC21" t="n">
         <v>9.5</v>
@@ -3519,7 +3519,7 @@
         <v>7</v>
       </c>
       <c r="AI21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ21" t="n">
         <v>41</v>
@@ -3543,7 +3543,7 @@
         <v>21</v>
       </c>
       <c r="AQ21" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR21" t="inlineStr"/>
       <c r="AS21" t="inlineStr"/>
@@ -3583,7 +3583,7 @@
         <v>1.9</v>
       </c>
       <c r="H22" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I22" t="n">
         <v>3.5</v>
@@ -3604,16 +3604,16 @@
         <v>19</v>
       </c>
       <c r="O22" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P22" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="R22" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="S22" t="n">
         <v>1.8</v>
@@ -3643,7 +3643,7 @@
         <v>12</v>
       </c>
       <c r="AB22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC22" t="n">
         <v>9</v>
@@ -3661,22 +3661,22 @@
         <v>21</v>
       </c>
       <c r="AH22" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ22" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AK22" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AL22" t="n">
         <v>17</v>
       </c>
       <c r="AM22" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN22" t="n">
         <v>13</v>
@@ -3740,13 +3740,13 @@
         <v>2.4</v>
       </c>
       <c r="L23" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M23" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O23" t="n">
         <v>1.14</v>
@@ -3761,10 +3761,10 @@
         <v>2.5</v>
       </c>
       <c r="S23" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T23" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="U23" t="n">
         <v>2.2</v>
@@ -3773,10 +3773,10 @@
         <v>1.62</v>
       </c>
       <c r="W23" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="X23" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Y23" t="n">
         <v>1.44</v>
@@ -3788,7 +3788,7 @@
         <v>15</v>
       </c>
       <c r="AB23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC23" t="n">
         <v>12</v>
@@ -3812,10 +3812,10 @@
         <v>11</v>
       </c>
       <c r="AJ23" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AK23" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AL23" t="n">
         <v>12</v>
@@ -3873,25 +3873,25 @@
         <v>2.8</v>
       </c>
       <c r="H24" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I24" t="n">
         <v>2.7</v>
       </c>
       <c r="J24" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K24" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="L24" t="n">
         <v>3.6</v>
       </c>
       <c r="M24" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N24" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O24" t="n">
         <v>1.5</v>
@@ -3914,25 +3914,25 @@
         <v>1.14</v>
       </c>
       <c r="W24" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="X24" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y24" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Z24" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AA24" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB24" t="n">
         <v>12</v>
       </c>
       <c r="AC24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD24" t="n">
         <v>29</v>
@@ -3944,7 +3944,7 @@
         <v>41</v>
       </c>
       <c r="AG24" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AH24" t="n">
         <v>6</v>
@@ -3953,7 +3953,7 @@
         <v>19</v>
       </c>
       <c r="AJ24" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AK24" t="n">
         <v>501</v>
@@ -3971,16 +3971,16 @@
         <v>29</v>
       </c>
       <c r="AP24" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ24" t="n">
         <v>41</v>
       </c>
       <c r="AR24" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="25">
@@ -4015,40 +4015,40 @@
         </is>
       </c>
       <c r="G25" t="n">
+        <v>3</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J25" t="n">
         <v>3.6</v>
       </c>
-      <c r="H25" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I25" t="n">
+      <c r="K25" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L25" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N25" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="n">
         <v>2.1</v>
       </c>
-      <c r="J25" t="n">
-        <v>4</v>
-      </c>
-      <c r="K25" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L25" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N25" t="n">
-        <v>10</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P25" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2.08</v>
-      </c>
       <c r="R25" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
@@ -4071,28 +4071,28 @@
         <v>1.91</v>
       </c>
       <c r="AA25" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AB25" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC25" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AD25" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE25" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF25" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG25" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI25" t="n">
         <v>15</v>
@@ -4104,22 +4104,22 @@
         <v>301</v>
       </c>
       <c r="AL25" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AM25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AN25" t="n">
         <v>9.5</v>
       </c>
-      <c r="AN25" t="n">
-        <v>9</v>
-      </c>
       <c r="AO25" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AP25" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AQ25" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR25" t="inlineStr"/>
       <c r="AS25" t="inlineStr"/>
@@ -4156,54 +4156,58 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H26" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="I26" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="J26" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="K26" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="L26" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="M26" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O26" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="P26" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="R26" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr"/>
+        <v>2.08</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.8</v>
+      </c>
       <c r="U26" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V26" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="W26" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X26" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Y26" t="n">
         <v>1.95</v>
@@ -4212,7 +4216,7 @@
         <v>1.8</v>
       </c>
       <c r="AA26" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB26" t="n">
         <v>41</v>
@@ -4230,34 +4234,34 @@
         <v>51</v>
       </c>
       <c r="AG26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH26" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AI26" t="n">
         <v>21</v>
       </c>
       <c r="AJ26" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AK26" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AL26" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AM26" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AN26" t="n">
         <v>8.5</v>
       </c>
       <c r="AO26" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ26" t="n">
         <v>26</v>
@@ -4444,7 +4448,7 @@
         <v>3.9</v>
       </c>
       <c r="I28" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J28" t="n">
         <v>2.1</v>
@@ -4462,16 +4466,16 @@
         <v>11</v>
       </c>
       <c r="O28" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P28" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R28" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
@@ -4494,7 +4498,7 @@
         <v>1.73</v>
       </c>
       <c r="AA28" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB28" t="n">
         <v>6.5</v>
@@ -4512,7 +4516,7 @@
         <v>29</v>
       </c>
       <c r="AG28" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH28" t="n">
         <v>7.5</v>
@@ -4524,7 +4528,7 @@
         <v>67</v>
       </c>
       <c r="AK28" t="n">
-        <v>1250</v>
+        <v>351</v>
       </c>
       <c r="AL28" t="n">
         <v>15</v>
@@ -4533,7 +4537,7 @@
         <v>34</v>
       </c>
       <c r="AN28" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO28" t="n">
         <v>67</v>
@@ -4720,22 +4724,22 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="I30" t="n">
         <v>3.45</v>
       </c>
       <c r="J30" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="K30" t="n">
         <v>1.95</v>
       </c>
       <c r="L30" t="n">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
@@ -4760,55 +4764,55 @@
         <v>1.2</v>
       </c>
       <c r="W30" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="X30" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="Y30" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="Z30" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="AA30" t="n">
         <v>6.4</v>
       </c>
       <c r="AB30" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AC30" t="n">
         <v>9</v>
       </c>
       <c r="AD30" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE30" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AF30" t="n">
         <v>35</v>
       </c>
       <c r="AG30" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="AH30" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="AI30" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AJ30" t="n">
         <v>90</v>
       </c>
       <c r="AK30" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AL30" t="n">
         <v>8.25</v>
       </c>
       <c r="AM30" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AN30" t="n">
         <v>12.5</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-03.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-03.xlsx
@@ -978,22 +978,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="H4" t="n">
         <v>4.5</v>
       </c>
       <c r="I4" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="J4" t="n">
         <v>2</v>
       </c>
       <c r="K4" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M4" t="n">
         <v>1.04</v>
@@ -1028,10 +1028,10 @@
         <v>3.25</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AA4" t="n">
         <v>7</v>
@@ -1143,28 +1143,28 @@
         <v>8</v>
       </c>
       <c r="O5" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P5" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="R5" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S5" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="T5" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="U5" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="V5" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="W5" t="n">
         <v>1.5</v>
@@ -1274,10 +1274,10 @@
         <v>3.2</v>
       </c>
       <c r="I6" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K6" t="n">
         <v>2.05</v>
@@ -1289,7 +1289,7 @@
         <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O6" t="n">
         <v>1.33</v>
@@ -1340,7 +1340,7 @@
         <v>21</v>
       </c>
       <c r="AE6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF6" t="n">
         <v>29</v>
@@ -1417,16 +1417,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H7" t="n">
         <v>2.9</v>
       </c>
       <c r="I7" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J7" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K7" t="n">
         <v>1.83</v>
@@ -1483,7 +1483,7 @@
         <v>9</v>
       </c>
       <c r="AC7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD7" t="n">
         <v>21</v>
@@ -1513,7 +1513,7 @@
         <v>7.5</v>
       </c>
       <c r="AM7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AN7" t="n">
         <v>15</v>
@@ -1566,100 +1566,100 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H8" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="I8" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="K8" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="L8" t="n">
+        <v>5</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="N8" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O8" t="n">
         <v>1.8</v>
       </c>
-      <c r="L8" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="N8" t="n">
-        <v>5</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.73</v>
-      </c>
       <c r="P8" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="R8" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="S8" t="n">
-        <v>6.2</v>
+        <v>7.2</v>
       </c>
       <c r="T8" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="U8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V8" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="W8" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="X8" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="Y8" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AA8" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF8" t="n">
         <v>51</v>
       </c>
       <c r="AG8" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="AH8" t="n">
         <v>6</v>
       </c>
       <c r="AI8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ8" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AK8" t="n">
         <v>101</v>
       </c>
       <c r="AL8" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AM8" t="n">
         <v>19</v>
@@ -1671,16 +1671,16 @@
         <v>51</v>
       </c>
       <c r="AP8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AQ8" t="n">
         <v>67</v>
       </c>
       <c r="AR8" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="9">
@@ -1739,22 +1739,22 @@
         <v>7</v>
       </c>
       <c r="O9" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P9" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R9" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S9" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T9" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="U9" t="n">
         <v>5</v>
@@ -1826,10 +1826,10 @@
         <v>51</v>
       </c>
       <c r="AR9" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="10">
@@ -4156,40 +4156,40 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="H26" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I26" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="J26" t="n">
         <v>7</v>
       </c>
       <c r="K26" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L26" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="M26" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N26" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O26" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P26" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="R26" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="S26" t="n">
         <v>2.05</v>
@@ -4198,28 +4198,28 @@
         <v>1.8</v>
       </c>
       <c r="U26" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V26" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="W26" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X26" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Y26" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="Z26" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AA26" t="n">
         <v>17</v>
       </c>
       <c r="AB26" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC26" t="n">
         <v>21</v>
@@ -4234,7 +4234,7 @@
         <v>51</v>
       </c>
       <c r="AG26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH26" t="n">
         <v>8.5</v>
@@ -4246,7 +4246,7 @@
         <v>67</v>
       </c>
       <c r="AK26" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AL26" t="n">
         <v>7</v>
@@ -4264,7 +4264,7 @@
         <v>12</v>
       </c>
       <c r="AQ26" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR26" t="inlineStr"/>
       <c r="AS26" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-03.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-03.xlsx
@@ -1277,7 +1277,7 @@
         <v>3.25</v>
       </c>
       <c r="J6" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
         <v>2.05</v>
@@ -1286,10 +1286,10 @@
         <v>3.75</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O6" t="n">
         <v>1.33</v>
@@ -1298,10 +1298,10 @@
         <v>3.25</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R6" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S6" t="n">
         <v>3.1</v>
@@ -1340,7 +1340,7 @@
         <v>21</v>
       </c>
       <c r="AE6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF6" t="n">
         <v>29</v>
@@ -1417,52 +1417,52 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="H7" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I7" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="J7" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K7" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L7" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M7" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N7" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="P7" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="R7" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="S7" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="T7" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="U7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="V7" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="W7" t="n">
         <v>1.67</v>
@@ -1471,25 +1471,25 @@
         <v>2.1</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AA7" t="n">
         <v>5.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AC7" t="n">
         <v>11</v>
       </c>
       <c r="AD7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF7" t="n">
         <v>41</v>
@@ -1504,19 +1504,19 @@
         <v>21</v>
       </c>
       <c r="AJ7" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AK7" t="n">
         <v>501</v>
       </c>
       <c r="AL7" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AM7" t="n">
         <v>15</v>
       </c>
       <c r="AN7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO7" t="n">
         <v>41</v>
@@ -1566,40 +1566,40 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H8" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="I8" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J8" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K8" t="n">
         <v>1.73</v>
       </c>
       <c r="L8" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="N8" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="O8" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="P8" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="R8" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="S8" t="n">
         <v>7.2</v>
@@ -1608,28 +1608,28 @@
         <v>1.1</v>
       </c>
       <c r="U8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V8" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="W8" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="X8" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="Y8" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AA8" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AB8" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AC8" t="n">
         <v>12</v>
@@ -1647,7 +1647,7 @@
         <v>4.33</v>
       </c>
       <c r="AH8" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI8" t="n">
         <v>29</v>
@@ -1665,7 +1665,7 @@
         <v>19</v>
       </c>
       <c r="AN8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO8" t="n">
         <v>51</v>
@@ -1674,7 +1674,7 @@
         <v>51</v>
       </c>
       <c r="AQ8" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR8" t="n">
         <v>2.8</v>
@@ -1864,76 +1864,76 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H10" t="n">
         <v>3</v>
       </c>
       <c r="I10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L10" t="n">
+        <v>6</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N10" t="n">
+        <v>6</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="U10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA10" t="n">
         <v>5</v>
       </c>
-      <c r="J10" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L10" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N10" t="n">
+      <c r="AB10" t="n">
         <v>7</v>
       </c>
-      <c r="O10" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S10" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="U10" t="n">
-        <v>5</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="W10" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="X10" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AC10" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE10" t="n">
         <v>19</v>
@@ -1942,13 +1942,13 @@
         <v>41</v>
       </c>
       <c r="AG10" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AH10" t="n">
         <v>6</v>
       </c>
       <c r="AI10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ10" t="n">
         <v>81</v>
@@ -1960,25 +1960,25 @@
         <v>10</v>
       </c>
       <c r="AM10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO10" t="n">
         <v>51</v>
       </c>
       <c r="AP10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AQ10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR10" t="n">
-        <v>1.88</v>
+        <v>2.1</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.98</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="11">
@@ -2043,22 +2043,22 @@
         <v>2.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R11" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S11" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T11" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="U11" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="V11" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="W11" t="n">
         <v>1.57</v>
@@ -2124,10 +2124,10 @@
         <v>41</v>
       </c>
       <c r="AR11" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="12">

--- a/Jogos_da_Semana_FlashScore_2025-02-03.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-03.xlsx
@@ -1566,16 +1566,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H8" t="n">
         <v>2.7</v>
       </c>
       <c r="I8" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J8" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K8" t="n">
         <v>1.73</v>
@@ -1602,10 +1602,10 @@
         <v>1.25</v>
       </c>
       <c r="S8" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="T8" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="U8" t="n">
         <v>10</v>
@@ -1614,10 +1614,10 @@
         <v>1.06</v>
       </c>
       <c r="W8" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="X8" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="Y8" t="n">
         <v>3</v>
@@ -1626,10 +1626,10 @@
         <v>1.36</v>
       </c>
       <c r="AA8" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AC8" t="n">
         <v>12</v>
@@ -1659,7 +1659,7 @@
         <v>101</v>
       </c>
       <c r="AL8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AM8" t="n">
         <v>19</v>
@@ -1677,10 +1677,10 @@
         <v>81</v>
       </c>
       <c r="AR8" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="9">
@@ -1715,13 +1715,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H9" t="n">
         <v>3.3</v>
       </c>
       <c r="I9" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J9" t="n">
         <v>2.63</v>
@@ -2013,28 +2013,28 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H11" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J11" t="n">
         <v>3.2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.1</v>
       </c>
       <c r="K11" t="n">
         <v>1.91</v>
       </c>
       <c r="L11" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M11" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N11" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O11" t="n">
         <v>1.5</v>
@@ -2049,7 +2049,7 @@
         <v>1.48</v>
       </c>
       <c r="S11" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T11" t="n">
         <v>1.22</v>
@@ -2067,10 +2067,10 @@
         <v>2.25</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AA11" t="n">
         <v>6</v>
@@ -2085,16 +2085,16 @@
         <v>21</v>
       </c>
       <c r="AE11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF11" t="n">
         <v>41</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH11" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AI11" t="n">
         <v>19</v>
@@ -2106,7 +2106,7 @@
         <v>800</v>
       </c>
       <c r="AL11" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AM11" t="n">
         <v>15</v>
@@ -2115,19 +2115,19 @@
         <v>13</v>
       </c>
       <c r="AO11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP11" t="n">
         <v>34</v>
       </c>
       <c r="AQ11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR11" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="12">
